--- a/app/designerFiles/app/config/tables/household/forms/household/household.xlsx
+++ b/app/designerFiles/app/config/tables/household/forms/household/household.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="21840" windowWidth="38640" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -31,6 +31,12 @@
       <charset val="1"/>
       <color rgb="FF000000"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <sz val="8"/>
     </font>
   </fonts>
   <fills count="2">
@@ -378,37 +384,37 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF67"/>
+  <dimension ref="A1:AF110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0" zoomScale="71" zoomScaleNormal="71">
-      <selection activeCell="W1" sqref="W1:W1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="71" zoomScaleNormal="71">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="2" width="11.5703125"/>
-    <col customWidth="1" max="3" min="3" style="2" width="6.7109375"/>
-    <col customWidth="1" max="4" min="4" style="2" width="8.7109375"/>
-    <col customWidth="1" max="5" min="5" style="2" width="26.42578125"/>
-    <col customWidth="1" max="6" min="6" style="2" width="19.5703125"/>
-    <col customWidth="1" max="7" min="7" style="2" width="21.7109375"/>
-    <col customWidth="1" max="8" min="8" style="2" width="79.28515625"/>
-    <col customWidth="1" max="9" min="9" style="2" width="57.140625"/>
+    <col customWidth="1" max="2" min="1" style="2" width="11.5546875"/>
+    <col customWidth="1" max="3" min="3" style="2" width="6.6640625"/>
+    <col customWidth="1" max="4" min="4" style="2" width="8.6640625"/>
+    <col customWidth="1" max="5" min="5" style="2" width="26.44140625"/>
+    <col customWidth="1" max="6" min="6" style="2" width="19.5546875"/>
+    <col customWidth="1" max="7" min="7" style="2" width="21.6640625"/>
+    <col customWidth="1" max="8" min="8" style="2" width="79.33203125"/>
+    <col customWidth="1" max="9" min="9" style="2" width="57.109375"/>
     <col customWidth="1" max="10" min="10" style="2" width="13"/>
-    <col customWidth="1" max="11" min="11" style="2" width="20.7109375"/>
-    <col customWidth="1" max="12" min="12" style="2" width="14.140625"/>
-    <col customWidth="1" max="13" min="13" style="2" width="17.85546875"/>
-    <col customWidth="1" max="14" min="14" style="2" width="18.28515625"/>
+    <col customWidth="1" max="11" min="11" style="2" width="20.6640625"/>
+    <col customWidth="1" max="12" min="12" style="2" width="14.109375"/>
+    <col customWidth="1" max="13" min="13" style="2" width="17.88671875"/>
+    <col customWidth="1" max="14" min="14" style="2" width="18.33203125"/>
     <col customWidth="1" max="15" min="15" style="2" width="12"/>
-    <col customWidth="1" max="16" min="16" style="2" width="17.28515625"/>
-    <col customWidth="1" max="17" min="17" style="2" width="16.42578125"/>
+    <col customWidth="1" max="16" min="16" style="2" width="17.33203125"/>
+    <col customWidth="1" max="17" min="17" style="2" width="16.44140625"/>
     <col customWidth="1" max="18" min="18" style="2" width="17"/>
-    <col customWidth="1" max="19" min="19" style="2" width="9.42578125"/>
-    <col customWidth="1" max="20" min="20" style="2" width="27.42578125"/>
-    <col customWidth="1" max="21" min="21" style="2" width="7.85546875"/>
-    <col customWidth="1" max="22" min="22" style="2" width="13.5703125"/>
+    <col customWidth="1" max="19" min="19" style="2" width="9.44140625"/>
+    <col customWidth="1" max="20" min="20" style="2" width="27.44140625"/>
+    <col customWidth="1" max="21" min="21" style="2" width="7.88671875"/>
+    <col customWidth="1" max="22" min="22" style="2" width="13.5546875"/>
     <col customWidth="1" max="23" min="23" style="2" width="46"/>
-    <col customWidth="1" max="1024" min="24" style="2" width="11.5703125"/>
+    <col customWidth="1" max="1024" min="24" style="2" width="11.5546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -849,7 +855,7 @@
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="9" s="2">
+    <row customHeight="1" ht="17.7" r="9" s="2">
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
@@ -895,7 +901,7 @@
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="10" s="2">
+    <row customHeight="1" ht="17.7" r="10" s="2">
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
@@ -929,7 +935,7 @@
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="11" s="2">
+    <row customHeight="1" ht="17.7" r="11" s="2">
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
@@ -967,7 +973,7 @@
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="12" s="2">
+    <row customHeight="1" ht="17.7" r="12" s="2">
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
@@ -1021,7 +1027,7 @@
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="13" s="2">
+    <row customHeight="1" ht="17.7" r="13" s="2">
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
@@ -1067,7 +1073,7 @@
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="14" s="2">
+    <row customHeight="1" ht="17.7" r="14" s="2">
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
@@ -1159,7 +1165,7 @@
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="16" s="2">
+    <row customHeight="1" ht="17.7" r="16" s="2">
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
@@ -1255,7 +1261,7 @@
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="18" s="2">
+    <row customHeight="1" ht="17.7" r="18" s="2">
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
@@ -1293,7 +1299,7 @@
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="19" s="2">
+    <row customHeight="1" ht="17.7" r="19" s="2">
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
@@ -1339,7 +1345,7 @@
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="20" s="2">
+    <row customHeight="1" ht="17.7" r="20" s="2">
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
@@ -2563,17 +2569,9 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>note</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Thank you for registering your household! Please click finalize on the next page.</t>
-        </is>
-      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2605,22 +2603,10 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>log_0</t>
-        </is>
-      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>data('log').substring(0,60000) == '' ? ' ' : data('log').substring(0,60000)</t>
-        </is>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
@@ -2648,25 +2634,19 @@
     <row r="49">
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>log_1</t>
-        </is>
-      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>data('log').substring(60000,120000) == '' ? ' ' : data('log').substring(60000,120000)</t>
-        </is>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
@@ -2699,20 +2679,16 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>log_2</t>
+          <t>extra_question1</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>data('log').substring(120000,180000) == '' ? ' ' : data('log').substring(120000,180000)</t>
-        </is>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
@@ -2750,13 +2726,13 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>log_3</t>
+          <t>log</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>data('log').substring(180000,240000) == '' ? ' ' : data('log').substring(180000,240000)</t>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question1',data('extra_question1')]]))</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -2791,20 +2767,16 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>log_4</t>
+          <t>extra_question2</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>data('log').substring(240000,300000) == '' ? ' ' : data('log').substring(240000,300000)</t>
-        </is>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
@@ -2842,13 +2814,13 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>log_5</t>
+          <t>log</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>data('log').substring(300000,360000) == '' ? ' ' : data('log').substring(300000,360000)</t>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question2',data('extra_question2')]]))</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -2883,20 +2855,16 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>log_6</t>
+          <t>extra_question3</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>data('log').substring(360000,420000) == '' ? ' ' : data('log').substring(360000,420000)</t>
-        </is>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
@@ -2934,13 +2902,13 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>log_7</t>
+          <t>log</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>data('log').substring(420000,480000) == '' ? ' ' : data('log').substring(420000,480000)</t>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question3',data('extra_question3')]]))</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -2975,20 +2943,16 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>log_8</t>
+          <t>extra_question4</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>data('log').substring(480000,540000) == '' ? ' ' : data('log').substring(480000,540000)</t>
-        </is>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
@@ -3026,13 +2990,13 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>log_9</t>
+          <t>log</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>data('log').substring(540000,600000) == '' ? ' ' : data('log').substring(540000,600000)</t>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question4',data('extra_question4')]]))</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -3067,20 +3031,16 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>log_10</t>
+          <t>extra_question5</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>data('log').substring(600000,660000) == '' ? ' ' : data('log').substring(600000,660000)</t>
-        </is>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
@@ -3118,13 +3078,13 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>log_11</t>
+          <t>log</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>data('log').substring(660000,720000) == '' ? ' ' : data('log').substring(660000,720000)</t>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question5',data('extra_question5')]]))</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -3159,20 +3119,16 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>log_12</t>
+          <t>extra_question6</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>data('log').substring(720000,780000) == '' ? ' ' : data('log').substring(720000,780000)</t>
-        </is>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
@@ -3210,13 +3166,13 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>log_13</t>
+          <t>log</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>data('log').substring(780000,840000) == '' ? ' ' : data('log').substring(780000,840000)</t>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question6',data('extra_question6')]]))</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -3251,20 +3207,16 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>log_14</t>
+          <t>extra_question7</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>data('log').substring(840000,900000) == '' ? ' ' : data('log').substring(840000,900000)</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
@@ -3302,13 +3254,13 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>log_15</t>
+          <t>log</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>data('log').substring(900000,960000) == '' ? ' ' : data('log').substring(900000,960000)</t>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question7',data('extra_question7')]]))</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -3343,20 +3295,16 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>log_16</t>
+          <t>extra_question8</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>data('log').substring(960000,1020000) == '' ? ' ' : data('log').substring(960000,1020000)</t>
-        </is>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
@@ -3394,13 +3342,13 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>log_17</t>
+          <t>log</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>data('log').substring(1020000,1080000) == '' ? ' ' : data('log').substring(1020000,1080000)</t>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question8',data('extra_question8')]]))</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -3435,20 +3383,16 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>log_18</t>
+          <t>extra_question9</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>data('log').substring(1080000,1140000) == '' ? ' ' : data('log').substring(1080000,1140000)</t>
-        </is>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
@@ -3486,13 +3430,13 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>log_19</t>
+          <t>log</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>data('log').substring(1140000,1200000) == '' ? ' ' : data('log').substring(1140000,1200000)</t>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question9',data('extra_question9')]]))</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -3518,6 +3462,1932 @@
       <c r="AD67" t="inlineStr"/>
       <c r="AE67" t="inlineStr"/>
       <c r="AF67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>extra_question10</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr"/>
+      <c r="AC68" t="inlineStr"/>
+      <c r="AD68" t="inlineStr"/>
+      <c r="AE68" t="inlineStr"/>
+      <c r="AF68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question10',data('extra_question10')]]))</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr"/>
+      <c r="AC69" t="inlineStr"/>
+      <c r="AD69" t="inlineStr"/>
+      <c r="AE69" t="inlineStr"/>
+      <c r="AF69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>extra_question11</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
+      <c r="AB70" t="inlineStr"/>
+      <c r="AC70" t="inlineStr"/>
+      <c r="AD70" t="inlineStr"/>
+      <c r="AE70" t="inlineStr"/>
+      <c r="AF70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question11',data('extra_question11')]]))</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
+      <c r="AB71" t="inlineStr"/>
+      <c r="AC71" t="inlineStr"/>
+      <c r="AD71" t="inlineStr"/>
+      <c r="AE71" t="inlineStr"/>
+      <c r="AF71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>extra_question12</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr"/>
+      <c r="AC72" t="inlineStr"/>
+      <c r="AD72" t="inlineStr"/>
+      <c r="AE72" t="inlineStr"/>
+      <c r="AF72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question12',data('extra_question12')]]))</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr"/>
+      <c r="AC73" t="inlineStr"/>
+      <c r="AD73" t="inlineStr"/>
+      <c r="AE73" t="inlineStr"/>
+      <c r="AF73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>extra_question13</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr"/>
+      <c r="AC74" t="inlineStr"/>
+      <c r="AD74" t="inlineStr"/>
+      <c r="AE74" t="inlineStr"/>
+      <c r="AF74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question13',data('extra_question13')]]))</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr"/>
+      <c r="AA75" t="inlineStr"/>
+      <c r="AB75" t="inlineStr"/>
+      <c r="AC75" t="inlineStr"/>
+      <c r="AD75" t="inlineStr"/>
+      <c r="AE75" t="inlineStr"/>
+      <c r="AF75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>extra_question14</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr"/>
+      <c r="AA76" t="inlineStr"/>
+      <c r="AB76" t="inlineStr"/>
+      <c r="AC76" t="inlineStr"/>
+      <c r="AD76" t="inlineStr"/>
+      <c r="AE76" t="inlineStr"/>
+      <c r="AF76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question14',data('extra_question14')]]))</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr"/>
+      <c r="AB77" t="inlineStr"/>
+      <c r="AC77" t="inlineStr"/>
+      <c r="AD77" t="inlineStr"/>
+      <c r="AE77" t="inlineStr"/>
+      <c r="AF77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>extra_question15</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
+      <c r="AB78" t="inlineStr"/>
+      <c r="AC78" t="inlineStr"/>
+      <c r="AD78" t="inlineStr"/>
+      <c r="AE78" t="inlineStr"/>
+      <c r="AF78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question15',data('extra_question15')]]))</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
+      <c r="AB79" t="inlineStr"/>
+      <c r="AC79" t="inlineStr"/>
+      <c r="AD79" t="inlineStr"/>
+      <c r="AE79" t="inlineStr"/>
+      <c r="AF79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>extra_question16</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr"/>
+      <c r="AA80" t="inlineStr"/>
+      <c r="AB80" t="inlineStr"/>
+      <c r="AC80" t="inlineStr"/>
+      <c r="AD80" t="inlineStr"/>
+      <c r="AE80" t="inlineStr"/>
+      <c r="AF80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question16',data('extra_question16')]]))</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
+      <c r="AA81" t="inlineStr"/>
+      <c r="AB81" t="inlineStr"/>
+      <c r="AC81" t="inlineStr"/>
+      <c r="AD81" t="inlineStr"/>
+      <c r="AE81" t="inlineStr"/>
+      <c r="AF81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>extra_question17</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr"/>
+      <c r="AA82" t="inlineStr"/>
+      <c r="AB82" t="inlineStr"/>
+      <c r="AC82" t="inlineStr"/>
+      <c r="AD82" t="inlineStr"/>
+      <c r="AE82" t="inlineStr"/>
+      <c r="AF82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question17',data('extra_question17')]]))</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr"/>
+      <c r="AA83" t="inlineStr"/>
+      <c r="AB83" t="inlineStr"/>
+      <c r="AC83" t="inlineStr"/>
+      <c r="AD83" t="inlineStr"/>
+      <c r="AE83" t="inlineStr"/>
+      <c r="AF83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>extra_question18</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
+      <c r="AA84" t="inlineStr"/>
+      <c r="AB84" t="inlineStr"/>
+      <c r="AC84" t="inlineStr"/>
+      <c r="AD84" t="inlineStr"/>
+      <c r="AE84" t="inlineStr"/>
+      <c r="AF84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question18',data('extra_question18')]]))</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
+      <c r="AA85" t="inlineStr"/>
+      <c r="AB85" t="inlineStr"/>
+      <c r="AC85" t="inlineStr"/>
+      <c r="AD85" t="inlineStr"/>
+      <c r="AE85" t="inlineStr"/>
+      <c r="AF85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>extra_question19</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
+      <c r="AA86" t="inlineStr"/>
+      <c r="AB86" t="inlineStr"/>
+      <c r="AC86" t="inlineStr"/>
+      <c r="AD86" t="inlineStr"/>
+      <c r="AE86" t="inlineStr"/>
+      <c r="AF86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question19',data('extra_question19')]]))</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr"/>
+      <c r="AB87" t="inlineStr"/>
+      <c r="AC87" t="inlineStr"/>
+      <c r="AD87" t="inlineStr"/>
+      <c r="AE87" t="inlineStr"/>
+      <c r="AF87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>extra_question20</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
+      <c r="AA88" t="inlineStr"/>
+      <c r="AB88" t="inlineStr"/>
+      <c r="AC88" t="inlineStr"/>
+      <c r="AD88" t="inlineStr"/>
+      <c r="AE88" t="inlineStr"/>
+      <c r="AF88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question20',data('extra_question20')]]))</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
+      <c r="AB89" t="inlineStr"/>
+      <c r="AC89" t="inlineStr"/>
+      <c r="AD89" t="inlineStr"/>
+      <c r="AE89" t="inlineStr"/>
+      <c r="AF89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>end if</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
+      <c r="AB90" t="inlineStr"/>
+      <c r="AC90" t="inlineStr"/>
+      <c r="AD90" t="inlineStr"/>
+      <c r="AE90" t="inlineStr"/>
+      <c r="AF90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>log_0</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>data('log').substring(0,60000) == '' ? ' ' : data('log').substring(0,60000)</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr"/>
+      <c r="AA91" t="inlineStr"/>
+      <c r="AB91" t="inlineStr"/>
+      <c r="AC91" t="inlineStr"/>
+      <c r="AD91" t="inlineStr"/>
+      <c r="AE91" t="inlineStr"/>
+      <c r="AF91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>log_1</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>data('log').substring(60000,120000) == '' ? ' ' : data('log').substring(60000,120000)</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr"/>
+      <c r="AA92" t="inlineStr"/>
+      <c r="AB92" t="inlineStr"/>
+      <c r="AC92" t="inlineStr"/>
+      <c r="AD92" t="inlineStr"/>
+      <c r="AE92" t="inlineStr"/>
+      <c r="AF92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>log_2</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>data('log').substring(120000,180000) == '' ? ' ' : data('log').substring(120000,180000)</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr"/>
+      <c r="AA93" t="inlineStr"/>
+      <c r="AB93" t="inlineStr"/>
+      <c r="AC93" t="inlineStr"/>
+      <c r="AD93" t="inlineStr"/>
+      <c r="AE93" t="inlineStr"/>
+      <c r="AF93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>log_3</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>data('log').substring(180000,240000) == '' ? ' ' : data('log').substring(180000,240000)</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
+      <c r="AA94" t="inlineStr"/>
+      <c r="AB94" t="inlineStr"/>
+      <c r="AC94" t="inlineStr"/>
+      <c r="AD94" t="inlineStr"/>
+      <c r="AE94" t="inlineStr"/>
+      <c r="AF94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>log_4</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>data('log').substring(240000,300000) == '' ? ' ' : data('log').substring(240000,300000)</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr"/>
+      <c r="AA95" t="inlineStr"/>
+      <c r="AB95" t="inlineStr"/>
+      <c r="AC95" t="inlineStr"/>
+      <c r="AD95" t="inlineStr"/>
+      <c r="AE95" t="inlineStr"/>
+      <c r="AF95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr"/>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>log_5</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>data('log').substring(300000,360000) == '' ? ' ' : data('log').substring(300000,360000)</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="inlineStr"/>
+      <c r="AA96" t="inlineStr"/>
+      <c r="AB96" t="inlineStr"/>
+      <c r="AC96" t="inlineStr"/>
+      <c r="AD96" t="inlineStr"/>
+      <c r="AE96" t="inlineStr"/>
+      <c r="AF96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr"/>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>log_6</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>data('log').substring(360000,420000) == '' ? ' ' : data('log').substring(360000,420000)</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr"/>
+      <c r="AA97" t="inlineStr"/>
+      <c r="AB97" t="inlineStr"/>
+      <c r="AC97" t="inlineStr"/>
+      <c r="AD97" t="inlineStr"/>
+      <c r="AE97" t="inlineStr"/>
+      <c r="AF97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>log_7</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>data('log').substring(420000,480000) == '' ? ' ' : data('log').substring(420000,480000)</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr"/>
+      <c r="Z98" t="inlineStr"/>
+      <c r="AA98" t="inlineStr"/>
+      <c r="AB98" t="inlineStr"/>
+      <c r="AC98" t="inlineStr"/>
+      <c r="AD98" t="inlineStr"/>
+      <c r="AE98" t="inlineStr"/>
+      <c r="AF98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr"/>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>log_8</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>data('log').substring(480000,540000) == '' ? ' ' : data('log').substring(480000,540000)</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr"/>
+      <c r="AA99" t="inlineStr"/>
+      <c r="AB99" t="inlineStr"/>
+      <c r="AC99" t="inlineStr"/>
+      <c r="AD99" t="inlineStr"/>
+      <c r="AE99" t="inlineStr"/>
+      <c r="AF99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr"/>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>log_9</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>data('log').substring(540000,600000) == '' ? ' ' : data('log').substring(540000,600000)</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
+      <c r="AA100" t="inlineStr"/>
+      <c r="AB100" t="inlineStr"/>
+      <c r="AC100" t="inlineStr"/>
+      <c r="AD100" t="inlineStr"/>
+      <c r="AE100" t="inlineStr"/>
+      <c r="AF100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr"/>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>log_10</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>data('log').substring(600000,660000) == '' ? ' ' : data('log').substring(600000,660000)</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
+      <c r="AA101" t="inlineStr"/>
+      <c r="AB101" t="inlineStr"/>
+      <c r="AC101" t="inlineStr"/>
+      <c r="AD101" t="inlineStr"/>
+      <c r="AE101" t="inlineStr"/>
+      <c r="AF101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr"/>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>log_11</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>data('log').substring(660000,720000) == '' ? ' ' : data('log').substring(660000,720000)</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr"/>
+      <c r="AA102" t="inlineStr"/>
+      <c r="AB102" t="inlineStr"/>
+      <c r="AC102" t="inlineStr"/>
+      <c r="AD102" t="inlineStr"/>
+      <c r="AE102" t="inlineStr"/>
+      <c r="AF102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr"/>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>log_12</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>data('log').substring(720000,780000) == '' ? ' ' : data('log').substring(720000,780000)</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr"/>
+      <c r="AA103" t="inlineStr"/>
+      <c r="AB103" t="inlineStr"/>
+      <c r="AC103" t="inlineStr"/>
+      <c r="AD103" t="inlineStr"/>
+      <c r="AE103" t="inlineStr"/>
+      <c r="AF103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr"/>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>log_13</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>data('log').substring(780000,840000) == '' ? ' ' : data('log').substring(780000,840000)</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr"/>
+      <c r="Z104" t="inlineStr"/>
+      <c r="AA104" t="inlineStr"/>
+      <c r="AB104" t="inlineStr"/>
+      <c r="AC104" t="inlineStr"/>
+      <c r="AD104" t="inlineStr"/>
+      <c r="AE104" t="inlineStr"/>
+      <c r="AF104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr"/>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>log_14</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>data('log').substring(840000,900000) == '' ? ' ' : data('log').substring(840000,900000)</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
+      <c r="Z105" t="inlineStr"/>
+      <c r="AA105" t="inlineStr"/>
+      <c r="AB105" t="inlineStr"/>
+      <c r="AC105" t="inlineStr"/>
+      <c r="AD105" t="inlineStr"/>
+      <c r="AE105" t="inlineStr"/>
+      <c r="AF105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr"/>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>log_15</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>data('log').substring(900000,960000) == '' ? ' ' : data('log').substring(900000,960000)</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="inlineStr"/>
+      <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr"/>
+      <c r="Z106" t="inlineStr"/>
+      <c r="AA106" t="inlineStr"/>
+      <c r="AB106" t="inlineStr"/>
+      <c r="AC106" t="inlineStr"/>
+      <c r="AD106" t="inlineStr"/>
+      <c r="AE106" t="inlineStr"/>
+      <c r="AF106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr"/>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>log_16</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>data('log').substring(960000,1020000) == '' ? ' ' : data('log').substring(960000,1020000)</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
+      <c r="Z107" t="inlineStr"/>
+      <c r="AA107" t="inlineStr"/>
+      <c r="AB107" t="inlineStr"/>
+      <c r="AC107" t="inlineStr"/>
+      <c r="AD107" t="inlineStr"/>
+      <c r="AE107" t="inlineStr"/>
+      <c r="AF107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr"/>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>log_17</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>data('log').substring(1020000,1080000) == '' ? ' ' : data('log').substring(1020000,1080000)</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
+      <c r="T108" t="inlineStr"/>
+      <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr"/>
+      <c r="Z108" t="inlineStr"/>
+      <c r="AA108" t="inlineStr"/>
+      <c r="AB108" t="inlineStr"/>
+      <c r="AC108" t="inlineStr"/>
+      <c r="AD108" t="inlineStr"/>
+      <c r="AE108" t="inlineStr"/>
+      <c r="AF108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr"/>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>log_18</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>data('log').substring(1080000,1140000) == '' ? ' ' : data('log').substring(1080000,1140000)</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
+      <c r="T109" t="inlineStr"/>
+      <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
+      <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr"/>
+      <c r="Z109" t="inlineStr"/>
+      <c r="AA109" t="inlineStr"/>
+      <c r="AB109" t="inlineStr"/>
+      <c r="AC109" t="inlineStr"/>
+      <c r="AD109" t="inlineStr"/>
+      <c r="AE109" t="inlineStr"/>
+      <c r="AF109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr"/>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>log_19</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>data('log').substring(1140000,1200000) == '' ? ' ' : data('log').substring(1140000,1200000)</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr"/>
+      <c r="T110" t="inlineStr"/>
+      <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr"/>
+      <c r="Z110" t="inlineStr"/>
+      <c r="AA110" t="inlineStr"/>
+      <c r="AB110" t="inlineStr"/>
+      <c r="AC110" t="inlineStr"/>
+      <c r="AD110" t="inlineStr"/>
+      <c r="AE110" t="inlineStr"/>
+      <c r="AF110" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
@@ -3545,11 +5415,11 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="2" width="30.85546875"/>
+    <col customWidth="1" max="1" min="1" style="2" width="30.88671875"/>
     <col customWidth="1" max="2" min="2" style="2" width="20"/>
-    <col customWidth="1" max="1025" min="3" style="2" width="11.5703125"/>
+    <col customWidth="1" max="1025" min="3" style="2" width="11.5546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3641,9 +5511,9 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="2" width="11.5703125"/>
+    <col customWidth="1" max="1025" min="1" style="2" width="11.5546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4084,9 +5954,9 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="2" width="11.5703125"/>
+    <col customWidth="1" max="1025" min="1" style="2" width="11.5546875"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/app/designerFiles/app/config/tables/household/forms/household/household.xlsx
+++ b/app/designerFiles/app/config/tables/household/forms/household/household.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="16440" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="15460" windowWidth="25600" xWindow="0" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId1"/>
@@ -422,22 +422,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF276"/>
+  <dimension ref="A1:AF279"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="92">
-      <selection activeCell="A3" sqref="A3:XFD23"/>
+    <sheetView topLeftCell="A103" workbookViewId="0" zoomScale="92">
+      <selection activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col bestFit="1" customWidth="1" max="4" min="4" style="11" width="34"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="11" width="17.28515625"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="11" width="18.85546875"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="11" width="19.85546875"/>
-    <col customWidth="1" max="8" min="8" style="11" width="56.7109375"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="11" width="17.33203125"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="11" width="18.83203125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="11" width="19.83203125"/>
+    <col customWidth="1" max="8" min="8" style="11" width="56.6640625"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row customHeight="1" ht="14" r="1" s="11">
       <c r="A1" t="inlineStr"/>
       <c r="B1" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1. What is the name of the interviewer?</t>
+          <t>What is the name of the interviewer?</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2. Choose field site</t>
+          <t>Choose field site</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>3. Collect the GPS coordinates</t>
+          <t>Collect the GPS coordinates</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -1451,17 +1451,17 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>note</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>manual_gps</t>
+          <t>line</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Enter GPS coordinates manually (if necessary)</t>
+          <t>_____________________</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -1497,17 +1497,17 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>note</t>
+          <t>text</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>manual_gps</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>_____________________</t>
+          <t>Enter GPS coordinates manually (if necessary)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -1540,34 +1540,26 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>GPS_taken</t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>select_one</t>
+          <t>note</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>GPS_taken</t>
+          <t>line</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>4. If you did not take GPS, please explain why not</t>
+          <t>_____________________</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr">
-        <is>
-          <t>Skip if GPS was taken</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -1592,24 +1584,36 @@
     <row r="25">
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="D25" s="8" t="inlineStr">
-        <is>
-          <t>selected(data('GPS_taken'), 'Other')</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>GPS_taken</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>select_one</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>GPS_taken</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>If you did not take GPS, please explain why not</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" s="5" t="inlineStr">
+        <is>
+          <t>Skip if GPS was taken</t>
+        </is>
+      </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -1634,24 +1638,20 @@
     <row r="26">
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D26" s="8" t="inlineStr">
+        <is>
+          <t>selected(data('GPS_taken'), 'Other')</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>GPS_taken_other</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>If you did not take GPS, please explain why not (other)</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1680,16 +1680,24 @@
     <row r="27">
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>end if</t>
-        </is>
-      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>GPS_taken_other</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>If you did not take GPS, please explain why not (other)</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1718,28 +1726,16 @@
     <row r="28">
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>end if</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>GPS_ID</t>
-        </is>
-      </c>
-      <c r="F28" s="5" t="inlineStr">
-        <is>
-          <t>select_one_with_other</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>GPS_ID</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>5. GPS ID (location type)</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1768,16 +1764,28 @@
     <row r="29">
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>end screen</t>
-        </is>
-      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" s="5" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>GPS_ID</t>
+        </is>
+      </c>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>select_one_with_other</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>GPS_ID</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>GPS ID (location type)</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1806,25 +1814,17 @@
     <row r="30">
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>end screen</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
+      <c r="F30" s="5" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'GPS_ID',data('GPS_ID')]]))</t>
-        </is>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
@@ -1849,7 +1849,7 @@
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="inlineStr"/>
     </row>
-    <row customFormat="1" r="31" s="13">
+    <row r="31">
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
@@ -1868,7 +1868,7 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'GPS_taken_other',data('GPS_taken_other')]]))</t>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'GPS_ID',data('GPS_ID')]]))</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -1895,7 +1895,7 @@
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="inlineStr"/>
     </row>
-    <row r="32">
+    <row customFormat="1" r="32" s="13">
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
@@ -1914,7 +1914,7 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'GPS_taken',data('GPS_taken')]]))</t>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'GPS_taken_other',data('GPS_taken_other')]]))</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1960,7 +1960,7 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'line',data('line')]]))</t>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'GPS_taken',data('GPS_taken')]]))</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -2006,7 +2006,7 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'manual_gps',data('manual_gps')]]))</t>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'line',data('line')]]))</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -2052,7 +2052,7 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'store_gps',data('store_gps')]]))</t>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'manual_gps',data('manual_gps')]]))</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -2082,17 +2082,25 @@
     <row r="36">
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>begin screen</t>
-        </is>
-      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'line',data('line')]]))</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
@@ -2122,34 +2130,26 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>hh_lassa</t>
-        </is>
-      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>select_one</t>
+          <t>assign</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>hh_lassa</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6. In your (the interviewer's) knowledge, has anyone in this household had Lassa fever? </t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'store_gps',data('store_gps')]]))</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>To be answered by interviewer</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2158,9 +2158,7 @@
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="n">
-        <v>1</v>
-      </c>
+      <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
@@ -2178,7 +2176,7 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>end screen</t>
+          <t>begin screen</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -2216,26 +2214,34 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>hh_lassa</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>select_one</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>log</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'hh_lassa',data('hh_lassa')]]))</t>
-        </is>
-      </c>
+          <t>hh_lassa</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">In your (the interviewer's) knowledge, has anyone in this household had Lassa fever? </t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>To be answered by interviewer</t>
+        </is>
+      </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -2244,7 +2250,9 @@
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
@@ -2260,7 +2268,11 @@
     <row r="40">
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>end screen</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
@@ -2296,27 +2308,23 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>consent</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve">select_one </t>
+          <t>assign</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>consent</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7. I'd like to ask you questions in order to help us conduct research in hopes to improve healthcare for Lassa fever. Redeemer University, the University of Cambridge, and our partners may have access to this information, including your current location. .  Note that you may withdraw your permission at any time and ask for your data to be erased. Choosing to not participate will in no way affect the care and treatment you will receive. Are you happy to participate? </t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'hh_lassa',data('hh_lassa')]]))</t>
+        </is>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
@@ -2328,9 +2336,7 @@
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="n">
-        <v>1</v>
-      </c>
+      <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
@@ -2349,22 +2355,10 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'consent',data('consent')]]))</t>
-        </is>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
@@ -2394,10 +2388,26 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>consent</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">select_one </t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>consent</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I'd like to ask you questions in order to help us conduct research in hopes to improve healthcare for Lassa fever. Redeemer University, the University of Cambridge, and our partners may have access to this information, including your current location. .  Note that you may withdraw your permission at any time and ask for your data to be erased. Choosing to not participate will in no way affect the care and treatment you will receive. Are you happy to participate? </t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -2410,7 +2420,9 @@
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
@@ -2426,21 +2438,25 @@
     <row r="44">
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr"/>
-      <c r="C44" s="13" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="D44" s="13" t="inlineStr">
-        <is>
-          <t>data('consent') == 'Yes'</t>
-        </is>
-      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'consent',data('consent')]]))</t>
+        </is>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
@@ -2468,11 +2484,7 @@
     <row r="45">
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>begin screen</t>
-        </is>
-      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
@@ -2506,25 +2518,21 @@
     <row r="46">
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+      <c r="C46" s="13" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D46" s="13" t="inlineStr">
+        <is>
+          <t>data('consent') == 'Yes'</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>registration_date</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>odkCommon.toOdkTimeStampFromDate(new Date())</t>
-        </is>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
@@ -2552,32 +2560,20 @@
     <row r="47">
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>begin screen</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>registration_date</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>8. Registration date</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Today's date</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
@@ -2586,11 +2582,7 @@
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>data('consent') == 'Yes'</t>
-        </is>
-      </c>
+      <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
@@ -2609,10 +2601,22 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>registration_date</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>odkCommon.toOdkTimeStampFromDate(new Date())</t>
+        </is>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
@@ -2645,23 +2649,27 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>date</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>consent_name</t>
+          <t>registration_date</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>9. What is the name of the individual consenting to registering the household?</t>
+          <t>Registration date</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Today's date</t>
+        </is>
+      </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
@@ -2744,7 +2752,7 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'consent_name',data('consent_name')]]))</t>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'registration_date',data('registration_date')]]))</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -2820,25 +2828,17 @@
     <row r="53">
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>begin screen</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'registration_date',data('registration_date')]]))</t>
-        </is>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
@@ -2866,16 +2866,24 @@
     <row r="54">
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>begin screen</t>
-        </is>
-      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>consent_name</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>What is the name of the individual consenting to registering the household?</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2888,7 +2896,11 @@
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>data('consent') == 'Yes'</t>
+        </is>
+      </c>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
@@ -2904,28 +2916,20 @@
     <row r="55">
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>end screen</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>note</t>
-        </is>
-      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>10. Who is the head of this household?</t>
-        </is>
-      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>This might not be the person you are interviewing</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
@@ -2955,20 +2959,20 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>assign</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>head_first_name</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>What is their first name?</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'consent_name',data('consent_name')]]))</t>
+        </is>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
@@ -2980,11 +2984,7 @@
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>data('consent') == 'Yes'</t>
-        </is>
-      </c>
+      <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
@@ -2997,27 +2997,19 @@
       <c r="AE56" t="inlineStr"/>
       <c r="AF56" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="14.25" r="57" s="11">
+    <row r="57">
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>begin screen</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>head_other_name</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>What is their other name?</t>
-        </is>
-      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -3051,23 +3043,23 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>head_surname</t>
-        </is>
-      </c>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>What is their surname?</t>
+          <t>Who is the head of this household?</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>This might not be the person you are interviewing</t>
+        </is>
+      </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
@@ -3076,11 +3068,7 @@
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>data('consent') == 'Yes'</t>
-        </is>
-      </c>
+      <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
@@ -3093,19 +3081,27 @@
       <c r="AE58" t="inlineStr"/>
       <c r="AF58" t="inlineStr"/>
     </row>
-    <row r="59">
+    <row customHeight="1" ht="14" r="59" s="11">
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>end screen</t>
-        </is>
-      </c>
+      <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>head_first_name</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>What is their first name?</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -3118,7 +3114,11 @@
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>data('consent') == 'Yes'</t>
+        </is>
+      </c>
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
@@ -3139,20 +3139,20 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>log</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'head_surname',data('head_surname')]]))</t>
-        </is>
-      </c>
+          <t>head_other_name</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>What is their other name?</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
@@ -3185,20 +3185,20 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>log</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'head_other_name',data('head_other_name')]]))</t>
-        </is>
-      </c>
+          <t>head_surname</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>What is their surname?</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
@@ -3210,7 +3210,11 @@
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>data('consent') == 'Yes'</t>
+        </is>
+      </c>
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
@@ -3226,25 +3230,17 @@
     <row r="62">
       <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>end screen</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'head_first_name',data('head_first_name')]]))</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
@@ -3272,17 +3268,25 @@
     <row r="63">
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>begin screen</t>
-        </is>
-      </c>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'head_surname',data('head_surname')]]))</t>
+        </is>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
@@ -3312,27 +3316,23 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>community_name</t>
-        </is>
-      </c>
+      <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>select_one</t>
+          <t>assign</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>community_name</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>11. Name of Community</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr"/>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'head_other_name',data('head_other_name')]]))</t>
+        </is>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
@@ -3360,21 +3360,25 @@
     <row r="65">
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="D65" s="8" t="inlineStr">
-        <is>
-          <t>selected(data('community_name'), 'Other')</t>
-        </is>
-      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'head_first_name',data('head_first_name')]]))</t>
+        </is>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
@@ -3386,7 +3390,7 @@
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
-      <c r="U65" s="8" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
@@ -3402,24 +3406,16 @@
     <row r="66">
       <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>begin screen</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>community_name_other</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Name of Community (Other)</t>
-        </is>
-      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -3448,16 +3444,28 @@
     <row r="67">
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>end if</t>
-        </is>
-      </c>
+      <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>community_name</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>select_one</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>community_name</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Name of Community</t>
+        </is>
+      </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -3486,28 +3494,20 @@
     <row r="68">
       <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>village_name</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>select_one</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>village_name</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>12. Village/City name</t>
-        </is>
-      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D68" s="8" t="inlineStr">
+        <is>
+          <t>selected(data('community_name'), 'Other')</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
+      <c r="U68" s="8" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
@@ -3536,20 +3536,24 @@
     <row r="69">
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="D69" s="8" t="inlineStr">
-        <is>
-          <t>selected(data('village_name'), 'Other')</t>
-        </is>
-      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>community_name_other</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Name of Community (Other)</t>
+        </is>
+      </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -3578,24 +3582,16 @@
     <row r="70">
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>end if</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>village_name_other</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Village/City name (Other)</t>
-        </is>
-      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -3624,16 +3620,28 @@
     <row r="71">
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>end if</t>
-        </is>
-      </c>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>village_name</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>select_one</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>village_name</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Village/City name</t>
+        </is>
+      </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -3662,24 +3670,20 @@
     <row r="72">
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D72" s="8" t="inlineStr">
+        <is>
+          <t>selected(data('village_name'), 'Other')</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>town_name</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>13. Town</t>
-        </is>
-      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3705,7 +3709,7 @@
       <c r="AE72" t="inlineStr"/>
       <c r="AF72" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="14.25" r="73" s="11">
+    <row r="73">
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
@@ -3718,22 +3722,18 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>address</t>
+          <t>village_name_other</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>14. Address</t>
+          <t>Village/City name (Other)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>Enter if there is a formal address; otherwise skip</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
@@ -3758,24 +3758,16 @@
     <row r="74">
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>end if</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>LGA_name</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>15. LGA</t>
-        </is>
-      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3801,19 +3793,27 @@
       <c r="AE74" t="inlineStr"/>
       <c r="AF74" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="14.25" r="75" s="11">
+    <row customHeight="1" ht="14" r="75" s="11">
       <c r="A75" t="inlineStr"/>
       <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>end screen</t>
-        </is>
-      </c>
+      <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>town_name</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Town</t>
+        </is>
+      </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3839,7 +3839,7 @@
       <c r="AE75" t="inlineStr"/>
       <c r="AF75" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="14.25" r="76" s="11">
+    <row r="76">
       <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
@@ -3847,23 +3847,27 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>text</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>log</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'LGA_name',data('LGA_name')]]))</t>
-        </is>
-      </c>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Enter if there is a formal address; otherwise skip</t>
+        </is>
+      </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
@@ -3885,7 +3889,7 @@
       <c r="AE76" t="inlineStr"/>
       <c r="AF76" t="inlineStr"/>
     </row>
-    <row r="77">
+    <row customHeight="1" ht="14" r="77" s="11">
       <c r="A77" t="inlineStr"/>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
@@ -3893,20 +3897,20 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>text</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>log</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'address',data('address')]]))</t>
-        </is>
-      </c>
+          <t>LGA_name</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>LGA</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
@@ -3931,28 +3935,20 @@
       <c r="AE77" t="inlineStr"/>
       <c r="AF77" t="inlineStr"/>
     </row>
-    <row r="78">
+    <row customHeight="1" ht="14" r="78" s="11">
       <c r="A78" t="inlineStr"/>
       <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>end screen</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'town_name',data('town_name')]]))</t>
-        </is>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
@@ -3996,7 +3992,7 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'village_name_other',data('village_name_other')]]))</t>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'LGA_name',data('LGA_name')]]))</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -4042,7 +4038,7 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'village_name',data('village_name')]]))</t>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'address',data('address')]]))</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -4088,7 +4084,7 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'community_name_other',data('community_name_other')]]))</t>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'town_name',data('town_name')]]))</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -4134,7 +4130,7 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'community_name',data('community_name')]]))</t>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'village_name_other',data('village_name_other')]]))</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -4169,44 +4165,32 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>assign</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>members</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>16. How many people live in this household?</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr"/>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'village_name',data('village_name')]]))</t>
+        </is>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" s="9" t="inlineStr">
-        <is>
-          <t>In total, including you. (Note: only people who regularly eat from the same pot count as being part of one household)</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>data('members')&lt;30</t>
-        </is>
-      </c>
+      <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>data('consent') == 'Yes'</t>
-        </is>
-      </c>
+      <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
@@ -4238,7 +4222,7 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'members',data('members')]]))</t>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'community_name_other',data('community_name_other')]]))</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -4271,10 +4255,22 @@
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
       <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'community_name',data('community_name')]]))</t>
+        </is>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
@@ -4302,29 +4298,49 @@
     <row r="86">
       <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>begin screen</t>
-        </is>
-      </c>
+      <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>members</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>How many people live in this household?</t>
+        </is>
+      </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" s="9" t="inlineStr">
+        <is>
+          <t>In total, including you. (Note: only people who regularly eat from the same pot count as being part of one household)</t>
+        </is>
+      </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>data('members')&lt;30</t>
+        </is>
+      </c>
       <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>data('consent') == 'Yes'</t>
+        </is>
+      </c>
       <c r="V86" t="inlineStr"/>
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
@@ -4342,27 +4358,23 @@
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>farm_proximity</t>
-        </is>
-      </c>
+      <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>select_one</t>
+          <t>assign</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>farm_proximity</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>16. Is this house located on or beside a farm?</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr"/>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'members',data('members')]]))</t>
+        </is>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
@@ -4390,16 +4402,8 @@
     <row r="88">
       <c r="A88" t="inlineStr"/>
       <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>data('farm_proximity') == 'Yes'</t>
-        </is>
-      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
@@ -4432,28 +4436,16 @@
     <row r="89">
       <c r="A89" t="inlineStr"/>
       <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>begin screen</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>farm_produce</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>select_multiple</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>farm_produce</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>17. What is grown on the farm?</t>
-        </is>
-      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -4482,20 +4474,28 @@
     <row r="90">
       <c r="A90" t="inlineStr"/>
       <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="D90" s="8" t="inlineStr">
-        <is>
-          <t>selected(data('farm_produce'), 'Other')</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>farm_proximity</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>select_one</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>farm_proximity</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Is this house located on or beside a farm?</t>
+        </is>
+      </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -4524,24 +4524,20 @@
     <row r="91">
       <c r="A91" t="inlineStr"/>
       <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>data('farm_proximity') == 'Yes'</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>farm_produce_other</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>18. Specify what is grown</t>
-        </is>
-      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -4567,19 +4563,31 @@
       <c r="AE91" t="inlineStr"/>
       <c r="AF91" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.75" r="92" s="11">
+    <row r="92">
       <c r="A92" t="inlineStr"/>
       <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>end if</t>
-        </is>
-      </c>
+      <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>farm_produce</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>select_multiple</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>farm_produce</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>What is grown on the farm?</t>
+        </is>
+      </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -4610,10 +4618,14 @@
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
-          <t>end if</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D93" s="8" t="inlineStr">
+        <is>
+          <t>selected(data('farm_produce'), 'Other')</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
@@ -4643,23 +4655,27 @@
       <c r="AE93" t="inlineStr"/>
       <c r="AF93" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.75" r="94" s="11">
+    <row customHeight="1" ht="16" r="94" s="11">
       <c r="A94" t="inlineStr"/>
       <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>data('farm_proximity') == 'No'</t>
-        </is>
-      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>farm_produce_other</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Specify what is grown</t>
+        </is>
+      </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -4688,24 +4704,16 @@
     <row r="95">
       <c r="A95" t="inlineStr"/>
       <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>end if</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>farm_minutes</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>18. How many minutes away is the closest farm (walking)?</t>
-        </is>
-      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -4731,7 +4739,7 @@
       <c r="AE95" t="inlineStr"/>
       <c r="AF95" t="inlineStr"/>
     </row>
-    <row r="96">
+    <row customHeight="1" ht="16" r="96" s="11">
       <c r="A96" t="inlineStr"/>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
@@ -4772,8 +4780,16 @@
     <row r="97">
       <c r="A97" t="inlineStr"/>
       <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>data('farm_proximity') == 'No'</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
@@ -4806,16 +4822,24 @@
     <row r="98">
       <c r="A98" t="inlineStr"/>
       <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>end screen</t>
-        </is>
-      </c>
+      <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>farm_minutes</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>How many minutes away is the closest farm (walking)?</t>
+        </is>
+      </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4844,25 +4868,17 @@
     <row r="99">
       <c r="A99" t="inlineStr"/>
       <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>end if</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'farm_minutes',data('farm_minutes')]]))</t>
-        </is>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
@@ -4893,22 +4909,10 @@
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'farm_produce_other',data('farm_produce_other')]]))</t>
-        </is>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
@@ -4936,25 +4940,17 @@
     <row r="101">
       <c r="A101" t="inlineStr"/>
       <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>end screen</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'farm_produce',data('farm_produce')]]))</t>
-        </is>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
@@ -4998,7 +4994,7 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'farm_proximity',data('farm_proximity')]]))</t>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'farm_minutes',data('farm_minutes')]]))</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -5028,17 +5024,25 @@
     <row r="103">
       <c r="A103" t="inlineStr"/>
       <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>begin screen</t>
-        </is>
-      </c>
+      <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
       <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'farm_produce_other',data('farm_produce_other')]]))</t>
+        </is>
+      </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
@@ -5068,34 +5072,26 @@
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>hh_lassa_status</t>
-        </is>
-      </c>
+      <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
         <is>
-          <t>select_one</t>
+          <t>assign</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>hh_lassa_status</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>22. Have you or anyone in your household ever been diagnosed with Lassa?</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr"/>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'farm_produce',data('farm_produce')]]))</t>
+        </is>
+      </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" s="9" t="inlineStr">
-        <is>
-          <t>Only select Yes if the person was diagnosed PCR positive for Lassa</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
@@ -5104,11 +5100,7 @@
       <c r="R104" t="inlineStr"/>
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr"/>
-      <c r="U104" t="inlineStr">
-        <is>
-          <t>data('consent') == 'Yes'</t>
-        </is>
-      </c>
+      <c r="U104" t="inlineStr"/>
       <c r="V104" t="inlineStr"/>
       <c r="W104" t="inlineStr"/>
       <c r="X104" t="inlineStr"/>
@@ -5124,21 +5116,25 @@
     <row r="105">
       <c r="A105" t="inlineStr"/>
       <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>data('hh_lassa_status') == 'Yes'</t>
-        </is>
-      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
       <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'farm_proximity',data('farm_proximity')]]))</t>
+        </is>
+      </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
@@ -5166,32 +5162,20 @@
     <row r="106">
       <c r="A106" t="inlineStr"/>
       <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>begin screen</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>hh_lassa_when</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>23. When was the most recent case of Lassa fever diagnosed in this household?</t>
-        </is>
-      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" s="9" t="inlineStr">
-        <is>
-          <t>Only answer if the person was diagnosed PCR positive for Lassa</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
@@ -5220,7 +5204,7 @@
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>hh_lassa_death</t>
+          <t>hh_lassa_status</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5230,12 +5214,12 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>hh_lassa_death</t>
+          <t>hh_lassa_status</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>24. Has anyone died from Lassa fever in this household?</t>
+          <t>Have you or anyone in your household ever been diagnosed with Lassa?</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -5243,7 +5227,7 @@
       <c r="K107" t="inlineStr"/>
       <c r="L107" s="9" t="inlineStr">
         <is>
-          <t>Only answer if the person was diagnosed PCR positive for Lassa</t>
+          <t>Only select Yes if the person was diagnosed PCR positive for Lassa</t>
         </is>
       </c>
       <c r="M107" t="inlineStr"/>
@@ -5254,7 +5238,11 @@
       <c r="R107" t="inlineStr"/>
       <c r="S107" t="inlineStr"/>
       <c r="T107" t="inlineStr"/>
-      <c r="U107" t="inlineStr"/>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>data('consent') == 'Yes'</t>
+        </is>
+      </c>
       <c r="V107" t="inlineStr"/>
       <c r="W107" t="inlineStr"/>
       <c r="X107" t="inlineStr"/>
@@ -5272,10 +5260,14 @@
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr">
         <is>
-          <t>end if</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>data('hh_lassa_status') == 'Yes'</t>
+        </is>
+      </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
@@ -5311,13 +5303,29 @@
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>hh_lassa_when</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>When was the most recent case of Lassa fever diagnosed in this household?</t>
+        </is>
+      </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" s="9" t="inlineStr">
+        <is>
+          <t>Only answer if the person was diagnosed PCR positive for Lassa</t>
+        </is>
+      </c>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
@@ -5342,20 +5350,36 @@
     <row r="110">
       <c r="A110" t="inlineStr"/>
       <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>end screen</t>
-        </is>
-      </c>
+      <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>hh_lassa_death</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>select_one</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>hh_lassa_death</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Has anyone died from Lassa fever in this household?</t>
+        </is>
+      </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" s="9" t="inlineStr">
+        <is>
+          <t>Only answer if the person was diagnosed PCR positive for Lassa</t>
+        </is>
+      </c>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
@@ -5380,25 +5404,17 @@
     <row r="111">
       <c r="A111" t="inlineStr"/>
       <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr"/>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>end if</t>
+        </is>
+      </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'hh_lassa_death',data('hh_lassa_death')]]))</t>
-        </is>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
@@ -5429,22 +5445,10 @@
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'hh_lassa_when',data('hh_lassa_when')]]))</t>
-        </is>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
@@ -5472,25 +5476,17 @@
     <row r="113">
       <c r="A113" t="inlineStr"/>
       <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr"/>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>end screen</t>
+        </is>
+      </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'hh_lassa_status',data('hh_lassa_status')]]))</t>
-        </is>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
@@ -5518,17 +5514,25 @@
     <row r="114">
       <c r="A114" t="inlineStr"/>
       <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>begin screen</t>
-        </is>
-      </c>
+      <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
       <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'hh_lassa_death',data('hh_lassa_death')]]))</t>
+        </is>
+      </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
@@ -5558,27 +5562,23 @@
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>property_cat</t>
-        </is>
-      </c>
+      <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr">
         <is>
-          <t>select_one</t>
+          <t>assign</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>property_cat</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>19. Do you have a cat on this property?</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr"/>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'hh_lassa_when',data('hh_lassa_when')]]))</t>
+        </is>
+      </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
@@ -5609,10 +5609,22 @@
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
       <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'hh_lassa_status',data('hh_lassa_status')]]))</t>
+        </is>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
@@ -5640,28 +5652,16 @@
     <row r="117">
       <c r="A117" t="inlineStr"/>
       <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>begin screen</t>
+        </is>
+      </c>
       <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>property_dog</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>select_one</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>property_dog</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>20. Do you have a dog on this property?</t>
-        </is>
-      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -5690,16 +5690,28 @@
     <row r="118">
       <c r="A118" t="inlineStr"/>
       <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>end screen</t>
-        </is>
-      </c>
+      <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>property_cat</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>select_one</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>property_cat</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Do you have a cat on this property?</t>
+        </is>
+      </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -5731,22 +5743,10 @@
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'property_dog',data('property_dog')]]))</t>
-        </is>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
@@ -5776,23 +5776,27 @@
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>property_dog</t>
+        </is>
+      </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>select_one</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>log</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'property_cat',data('property_cat')]]))</t>
-        </is>
-      </c>
+          <t>property_dog</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Do you have a dog on this property?</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
@@ -5822,7 +5826,7 @@
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr">
         <is>
-          <t>begin screen</t>
+          <t>end screen</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
@@ -5861,10 +5865,22 @@
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
       <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr"/>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'property_dog',data('property_dog')]]))</t>
+        </is>
+      </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
@@ -5894,27 +5910,23 @@
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>television</t>
-        </is>
-      </c>
+      <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr">
         <is>
-          <t>select_one</t>
+          <t>assign</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>television</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Do you own a television?</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr"/>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'property_cat',data('property_cat')]]))</t>
+        </is>
+      </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
@@ -5942,7 +5954,11 @@
     <row r="124">
       <c r="A124" t="inlineStr"/>
       <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr"/>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>begin screen</t>
+        </is>
+      </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
@@ -5978,26 +5994,10 @@
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>refrigerator</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>select_one</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>refrigerator</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Do you own a refrigerator?</t>
-        </is>
-      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -6026,16 +6026,28 @@
     <row r="126">
       <c r="A126" t="inlineStr"/>
       <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>end screen</t>
-        </is>
-      </c>
+      <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>television</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>select_one</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>television</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Do you own a television?</t>
+        </is>
+      </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -6067,22 +6079,10 @@
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'refrigerator',data('refrigerator')]]))</t>
-        </is>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
@@ -6112,23 +6112,27 @@
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>refrigerator</t>
+        </is>
+      </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>select_one</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>log</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'television',data('television')]]))</t>
-        </is>
-      </c>
+          <t>refrigerator</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Do you own a refrigerator?</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
@@ -6158,7 +6162,7 @@
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr">
         <is>
-          <t>begin screen</t>
+          <t>end screen</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
@@ -6196,27 +6200,23 @@
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>toilet_type</t>
-        </is>
-      </c>
+      <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr">
         <is>
-          <t>select_multiple</t>
+          <t>assign</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>toilet_type</t>
-        </is>
-      </c>
-      <c r="H130" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">What type of toilet do you have? </t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr"/>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'refrigerator',data('refrigerator')]]))</t>
+        </is>
+      </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
@@ -6244,21 +6244,25 @@
     <row r="131">
       <c r="A131" t="inlineStr"/>
       <c r="B131" t="inlineStr"/>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="D131" s="8" t="inlineStr">
-        <is>
-          <t>selected(data('toilet_type'), 'Other')</t>
-        </is>
-      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
       <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr"/>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'television',data('television')]]))</t>
+        </is>
+      </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
@@ -6286,24 +6290,16 @@
     <row r="132">
       <c r="A132" t="inlineStr"/>
       <c r="B132" t="inlineStr"/>
-      <c r="C132" t="inlineStr"/>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>begin screen</t>
+        </is>
+      </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>toilet_type_other</t>
-        </is>
-      </c>
-      <c r="H132" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">What type of toilet do you have? </t>
-        </is>
-      </c>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -6332,16 +6328,28 @@
     <row r="133">
       <c r="A133" t="inlineStr"/>
       <c r="B133" t="inlineStr"/>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>end if</t>
-        </is>
-      </c>
+      <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>toilet_type</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>select_multiple</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>toilet_type</t>
+        </is>
+      </c>
+      <c r="H133" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What type of toilet do you have? </t>
+        </is>
+      </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -6370,8 +6378,16 @@
     <row r="134">
       <c r="A134" t="inlineStr"/>
       <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D134" s="8" t="inlineStr">
+        <is>
+          <t>selected(data('toilet_type'), 'Other')</t>
+        </is>
+      </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
@@ -6404,16 +6420,24 @@
     <row r="135">
       <c r="A135" t="inlineStr"/>
       <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>end screen</t>
-        </is>
-      </c>
+      <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>toilet_type_other</t>
+        </is>
+      </c>
+      <c r="H135" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What type of toilet do you have? </t>
+        </is>
+      </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -6442,25 +6466,17 @@
     <row r="136">
       <c r="A136" t="inlineStr"/>
       <c r="B136" t="inlineStr"/>
-      <c r="C136" t="inlineStr"/>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>end if</t>
+        </is>
+      </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'toilet_type_other',data('toilet_type_other')]]))</t>
-        </is>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
@@ -6491,22 +6507,10 @@
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'toilet_type',data('toilet_type')]]))</t>
-        </is>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
@@ -6536,7 +6540,7 @@
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr">
         <is>
-          <t>begin screen</t>
+          <t>end screen</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
@@ -6574,27 +6578,23 @@
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>roof_material</t>
-        </is>
-      </c>
+      <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr">
         <is>
-          <t>select_multiple</t>
+          <t>assign</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>roof_material</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>What is the roof made of?</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr"/>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'toilet_type_other',data('toilet_type_other')]]))</t>
+        </is>
+      </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
@@ -6622,21 +6622,25 @@
     <row r="140">
       <c r="A140" t="inlineStr"/>
       <c r="B140" t="inlineStr"/>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="D140" s="8" t="inlineStr">
-        <is>
-          <t>selected(data('roof_material'), 'Other')</t>
-        </is>
-      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
       <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr"/>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'toilet_type',data('toilet_type')]]))</t>
+        </is>
+      </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
@@ -6664,24 +6668,16 @@
     <row r="141">
       <c r="A141" t="inlineStr"/>
       <c r="B141" t="inlineStr"/>
-      <c r="C141" t="inlineStr"/>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>begin screen</t>
+        </is>
+      </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>roof_material_other</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>What is the roof made of?</t>
-        </is>
-      </c>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -6710,16 +6706,28 @@
     <row r="142">
       <c r="A142" t="inlineStr"/>
       <c r="B142" t="inlineStr"/>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>end if</t>
-        </is>
-      </c>
+      <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>roof_material</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>select_multiple</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>roof_material</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>What is the roof made of?</t>
+        </is>
+      </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -6748,28 +6756,20 @@
     <row r="143">
       <c r="A143" t="inlineStr"/>
       <c r="B143" t="inlineStr"/>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>house_material</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>select_multiple</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>house_material</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>What type of material is your house primarily made of?</t>
-        </is>
-      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D143" s="8" t="inlineStr">
+        <is>
+          <t>selected(data('roof_material'), 'Other')</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -6798,20 +6798,24 @@
     <row r="144">
       <c r="A144" t="inlineStr"/>
       <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="D144" s="8" t="inlineStr">
-        <is>
-          <t>selected(data('house_material'), 'Other')</t>
-        </is>
-      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>roof_material_other</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>What is the roof made of?</t>
+        </is>
+      </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -6840,24 +6844,16 @@
     <row r="145">
       <c r="A145" t="inlineStr"/>
       <c r="B145" t="inlineStr"/>
-      <c r="C145" t="inlineStr"/>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>end if</t>
+        </is>
+      </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>house_material_other</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>What type of material is your house primarily made of?</t>
-        </is>
-      </c>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
@@ -6886,16 +6882,28 @@
     <row r="146">
       <c r="A146" t="inlineStr"/>
       <c r="B146" t="inlineStr"/>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>end if</t>
-        </is>
-      </c>
+      <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>house_material</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>select_multiple</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>house_material</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>What type of material is your house primarily made of?</t>
+        </is>
+      </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
@@ -6924,8 +6932,16 @@
     <row r="147">
       <c r="A147" t="inlineStr"/>
       <c r="B147" t="inlineStr"/>
-      <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr"/>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D147" s="8" t="inlineStr">
+        <is>
+          <t>selected(data('house_material'), 'Other')</t>
+        </is>
+      </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
@@ -6958,16 +6974,24 @@
     <row r="148">
       <c r="A148" t="inlineStr"/>
       <c r="B148" t="inlineStr"/>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>end screen</t>
-        </is>
-      </c>
+      <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>house_material_other</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>What type of material is your house primarily made of?</t>
+        </is>
+      </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
@@ -6996,25 +7020,17 @@
     <row r="149">
       <c r="A149" t="inlineStr"/>
       <c r="B149" t="inlineStr"/>
-      <c r="C149" t="inlineStr"/>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>end if</t>
+        </is>
+      </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'house_material_other',data('house_material_other')]]))</t>
-        </is>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
@@ -7045,22 +7061,10 @@
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'house_material',data('house_material')]]))</t>
-        </is>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
@@ -7088,25 +7092,17 @@
     <row r="151">
       <c r="A151" t="inlineStr"/>
       <c r="B151" t="inlineStr"/>
-      <c r="C151" t="inlineStr"/>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>end screen</t>
+        </is>
+      </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'roof_material_other',data('roof_material_other')]]))</t>
-        </is>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
@@ -7150,7 +7146,7 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'roof_material',data('roof_material')]]))</t>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'house_material_other',data('house_material_other')]]))</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
@@ -7180,17 +7176,25 @@
     <row r="153">
       <c r="A153" t="inlineStr"/>
       <c r="B153" t="inlineStr"/>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>begin screen</t>
-        </is>
-      </c>
+      <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
       <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr"/>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'house_material',data('house_material')]]))</t>
+        </is>
+      </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
@@ -7215,32 +7219,28 @@
       <c r="AE153" t="inlineStr"/>
       <c r="AF153" t="inlineStr"/>
     </row>
-    <row customFormat="1" r="154" s="13">
+    <row r="154">
       <c r="A154" t="inlineStr"/>
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>rodent_burrows</t>
-        </is>
-      </c>
+      <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr">
         <is>
-          <t>select_one</t>
+          <t>assign</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>rodent_burrows</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>26. Do you have rat holes in/around your house?</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr"/>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'roof_material_other',data('roof_material_other')]]))</t>
+        </is>
+      </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
@@ -7268,17 +7268,25 @@
     <row r="155">
       <c r="A155" t="inlineStr"/>
       <c r="B155" t="inlineStr"/>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>end screen</t>
-        </is>
-      </c>
+      <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
       <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr"/>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'roof_material',data('roof_material')]]))</t>
+        </is>
+      </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
@@ -7303,28 +7311,20 @@
       <c r="AE155" t="inlineStr"/>
       <c r="AF155" t="inlineStr"/>
     </row>
-    <row r="156">
+    <row customFormat="1" r="156" s="13">
       <c r="A156" t="inlineStr"/>
       <c r="B156" t="inlineStr"/>
-      <c r="C156" t="inlineStr"/>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>begin screen</t>
+        </is>
+      </c>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'rodent_burrows',data('rodent_burrows')]]))</t>
-        </is>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
@@ -7352,16 +7352,28 @@
     <row r="157">
       <c r="A157" t="inlineStr"/>
       <c r="B157" t="inlineStr"/>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>begin screen</t>
-        </is>
-      </c>
+      <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-      <c r="H157" t="inlineStr"/>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>rodent_burrows</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>select_one</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>rodent_burrows</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Do you have rat holes in/around your house?</t>
+        </is>
+      </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
@@ -7390,28 +7402,16 @@
     <row r="158">
       <c r="A158" t="inlineStr"/>
       <c r="B158" t="inlineStr"/>
-      <c r="C158" t="inlineStr"/>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>end screen</t>
+        </is>
+      </c>
       <c r="D158" t="inlineStr"/>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>hh_shop</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>select_one</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>hh_shop</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>27. Do you run a shop out of your house?</t>
-        </is>
-      </c>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
@@ -7443,10 +7443,22 @@
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
       <c r="H159" t="inlineStr"/>
-      <c r="I159" t="inlineStr"/>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'rodent_burrows',data('rodent_burrows')]]))</t>
+        </is>
+      </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
@@ -7474,28 +7486,16 @@
     <row r="160">
       <c r="A160" t="inlineStr"/>
       <c r="B160" t="inlineStr"/>
-      <c r="C160" t="inlineStr"/>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>begin screen</t>
+        </is>
+      </c>
       <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>hh_medical_services</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>select_one</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>hh_medical_services</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>28. Do you run informal health services from your house (e.g. local optometry, orthopedics, infectious disease specialists and birth attendants, traditional healer)?</t>
-        </is>
-      </c>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
@@ -7524,16 +7524,28 @@
     <row r="161">
       <c r="A161" t="inlineStr"/>
       <c r="B161" t="inlineStr"/>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>end screen</t>
-        </is>
-      </c>
+      <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr"/>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>hh_shop</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>select_one</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>hh_shop</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Do you run a shop out of your house?</t>
+        </is>
+      </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
@@ -7565,22 +7577,10 @@
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'hh_medical_services',data('hh_medical_services')]]))</t>
-        </is>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
@@ -7610,23 +7610,27 @@
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr"/>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>hh_medical_services</t>
+        </is>
+      </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>select_one</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>log</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr"/>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'hh_shop',data('hh_shop')]]))</t>
-        </is>
-      </c>
+          <t>hh_medical_services</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Do you run informal health services from your house (e.g. local optometry, orthopedics, infectious disease specialists and birth attendants, traditional healer)?</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
@@ -7656,7 +7660,7 @@
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr">
         <is>
-          <t>begin screen</t>
+          <t>end screen</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
@@ -7697,27 +7701,23 @@
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>assign</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>hh_income</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>21. What is the average yearly income for the household (in naira)?</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr"/>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'hh_medical_services',data('hh_medical_services')]]))</t>
+        </is>
+      </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>Do not include rare events, such as land sale</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr"/>
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr"/>
@@ -7742,17 +7742,25 @@
     <row r="166">
       <c r="A166" t="inlineStr"/>
       <c r="B166" t="inlineStr"/>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>end screen</t>
-        </is>
-      </c>
+      <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
       <c r="H166" t="inlineStr"/>
-      <c r="I166" t="inlineStr"/>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'hh_shop',data('hh_shop')]]))</t>
+        </is>
+      </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
@@ -7780,25 +7788,17 @@
     <row r="167">
       <c r="A167" t="inlineStr"/>
       <c r="B167" t="inlineStr"/>
-      <c r="C167" t="inlineStr"/>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>begin screen</t>
+        </is>
+      </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'hh_income',data('hh_income')]]))</t>
-        </is>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
@@ -7826,20 +7826,32 @@
     <row r="168">
       <c r="A168" t="inlineStr"/>
       <c r="B168" t="inlineStr"/>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>begin screen</t>
-        </is>
-      </c>
+      <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr"/>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>hh_income</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>What is the average yearly income for the household (in naira)?</t>
+        </is>
+      </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>Do not include rare events, such as land sale</t>
+        </is>
+      </c>
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr"/>
@@ -7864,7 +7876,11 @@
     <row r="169">
       <c r="A169" t="inlineStr"/>
       <c r="B169" t="inlineStr"/>
-      <c r="C169" t="inlineStr"/>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>end screen</t>
+        </is>
+      </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
@@ -7900,34 +7916,26 @@
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>dump</t>
-        </is>
-      </c>
+      <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr">
         <is>
-          <t>select_one</t>
+          <t>assign</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>dump</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>29. Where do you dump your refuse?</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr"/>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'hh_income',data('hh_income')]]))</t>
+        </is>
+      </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>If multiple, select main dumpsite</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr"/>
@@ -7954,14 +7962,10 @@
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="inlineStr">
         <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="D171" s="8" t="inlineStr">
-        <is>
-          <t>selected(data('dump'), 'Other')</t>
-        </is>
-      </c>
+          <t>begin screen</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
@@ -7997,21 +8001,9 @@
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>dump_other</t>
-        </is>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>Describe where your refuse is dumped</t>
-        </is>
-      </c>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
@@ -8040,20 +8032,36 @@
     <row r="173">
       <c r="A173" t="inlineStr"/>
       <c r="B173" t="inlineStr"/>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>end if</t>
-        </is>
-      </c>
+      <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr"/>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>dump</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>select_multiple</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>dump</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Where do you dump your refuse?</t>
+        </is>
+      </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>If multiple, select main dumpsite</t>
+        </is>
+      </c>
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr"/>
@@ -8078,8 +8086,16 @@
     <row r="174">
       <c r="A174" t="inlineStr"/>
       <c r="B174" t="inlineStr"/>
-      <c r="C174" t="inlineStr"/>
-      <c r="D174" t="inlineStr"/>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D174" s="8" t="inlineStr">
+        <is>
+          <t>selected(data('dump'), 'Other')</t>
+        </is>
+      </c>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
@@ -8112,16 +8128,24 @@
     <row r="175">
       <c r="A175" t="inlineStr"/>
       <c r="B175" t="inlineStr"/>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>end screen</t>
-        </is>
-      </c>
+      <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-      <c r="H175" t="inlineStr"/>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>dump_other</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Describe where your refuse is dumped</t>
+        </is>
+      </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
@@ -8150,25 +8174,17 @@
     <row r="176">
       <c r="A176" t="inlineStr"/>
       <c r="B176" t="inlineStr"/>
-      <c r="C176" t="inlineStr"/>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>end if</t>
+        </is>
+      </c>
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr"/>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'dump_other',data('dump_other')]]))</t>
-        </is>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
@@ -8199,22 +8215,10 @@
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr"/>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'dump',data('dump')]]))</t>
-        </is>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
@@ -8244,7 +8248,7 @@
       <c r="B178" t="inlineStr"/>
       <c r="C178" t="inlineStr">
         <is>
-          <t>begin screen</t>
+          <t>end screen</t>
         </is>
       </c>
       <c r="D178" t="inlineStr"/>
@@ -8282,27 +8286,23 @@
       <c r="B179" t="inlineStr"/>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr"/>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>see_dump</t>
-        </is>
-      </c>
+      <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr">
         <is>
-          <t>select_one</t>
+          <t>assign</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>see_dump</t>
-        </is>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>30. Can we see the dump site?</t>
-        </is>
-      </c>
-      <c r="I179" t="inlineStr"/>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'dump_other',data('dump_other')]]))</t>
+        </is>
+      </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
@@ -8330,21 +8330,25 @@
     <row r="180">
       <c r="A180" t="inlineStr"/>
       <c r="B180" t="inlineStr"/>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="D180" s="5" t="inlineStr">
-        <is>
-          <t>data('see_dump') == 'Yes'</t>
-        </is>
-      </c>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
       <c r="H180" t="inlineStr"/>
-      <c r="I180" t="inlineStr"/>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'dump',data('dump')]]))</t>
+        </is>
+      </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
@@ -8372,20 +8376,16 @@
     <row r="181">
       <c r="A181" t="inlineStr"/>
       <c r="B181" t="inlineStr"/>
-      <c r="C181" t="inlineStr"/>
-      <c r="D181" s="5" t="inlineStr"/>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>begin screen</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>visit_dump</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Visiting dump site</t>
-        </is>
-      </c>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
@@ -8416,30 +8416,30 @@
       <c r="B182" t="inlineStr"/>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
-      <c r="E182" t="inlineStr"/>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>see_dump</t>
+        </is>
+      </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>select_one</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>far_dump</t>
+          <t>see_dump</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>31. How many steps is it from the house?</t>
+          <t>Can we see the dump site?</t>
         </is>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" s="5" t="inlineStr">
-        <is>
-          <t>You can enter '25' for anything 25 steps or greater</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
@@ -8464,8 +8464,16 @@
     <row r="183">
       <c r="A183" t="inlineStr"/>
       <c r="B183" t="inlineStr"/>
-      <c r="C183" t="inlineStr"/>
-      <c r="D183" t="inlineStr"/>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D183" s="5" t="inlineStr">
+        <is>
+          <t>data('see_dump') == 'Yes'</t>
+        </is>
+      </c>
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
@@ -8499,11 +8507,19 @@
       <c r="A184" t="inlineStr"/>
       <c r="B184" t="inlineStr"/>
       <c r="C184" t="inlineStr"/>
-      <c r="D184" t="inlineStr"/>
+      <c r="D184" s="5" t="inlineStr"/>
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr"/>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>visit_dump</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Visiting dump site</t>
+        </is>
+      </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
@@ -8534,30 +8550,30 @@
       <c r="B185" t="inlineStr"/>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr"/>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>picture_dump</t>
-        </is>
-      </c>
+      <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr">
         <is>
-          <t>select_one</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>picture_dump</t>
+          <t>far_dump</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>32. Can we take a picture of the dumpsite?</t>
+          <t>How many steps is it from the house?</t>
         </is>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" s="5" t="inlineStr">
+        <is>
+          <t>You can enter '25' for anything 25 steps or greater</t>
+        </is>
+      </c>
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
@@ -8582,16 +8598,8 @@
     <row r="186">
       <c r="A186" t="inlineStr"/>
       <c r="B186" t="inlineStr"/>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="D186" s="5" t="inlineStr">
-        <is>
-          <t>data('picture_dump') == 'Yes'</t>
-        </is>
-      </c>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
@@ -8627,21 +8635,9 @@
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>dump1</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>33. Take picture of dump site</t>
-        </is>
-      </c>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
@@ -8670,16 +8666,28 @@
     <row r="188">
       <c r="A188" t="inlineStr"/>
       <c r="B188" t="inlineStr"/>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>end if</t>
-        </is>
-      </c>
-      <c r="D188" s="5" t="inlineStr"/>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>picture_dump</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>select_one</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>picture_dump</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Can we take a picture of the dumpsite?</t>
+        </is>
+      </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
@@ -8708,8 +8716,16 @@
     <row r="189">
       <c r="A189" t="inlineStr"/>
       <c r="B189" t="inlineStr"/>
-      <c r="C189" t="inlineStr"/>
-      <c r="D189" t="inlineStr"/>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D189" s="5" t="inlineStr">
+        <is>
+          <t>data('picture_dump') == 'Yes'</t>
+        </is>
+      </c>
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
@@ -8745,9 +8761,21 @@
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr"/>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>dump1</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Take picture of dump site</t>
+        </is>
+      </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
@@ -8776,28 +8804,16 @@
     <row r="191">
       <c r="A191" t="inlineStr"/>
       <c r="B191" t="inlineStr"/>
-      <c r="C191" t="inlineStr"/>
-      <c r="D191" t="inlineStr"/>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>gps_dump</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>select_one</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>gps_dump</t>
-        </is>
-      </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>34. Can we take a GPS point of the dumpsite?</t>
-        </is>
-      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>end if</t>
+        </is>
+      </c>
+      <c r="D191" s="5" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
@@ -8826,16 +8842,8 @@
     <row r="192">
       <c r="A192" t="inlineStr"/>
       <c r="B192" t="inlineStr"/>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="D192" s="5" t="inlineStr">
-        <is>
-          <t>data('gps_dump') == 'Yes'</t>
-        </is>
-      </c>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
@@ -8871,21 +8879,9 @@
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>geopoint</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>store_gps_dump</t>
-        </is>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>35. Take GPS coordinates of dump site</t>
-        </is>
-      </c>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
@@ -8914,16 +8910,28 @@
     <row r="194">
       <c r="A194" t="inlineStr"/>
       <c r="B194" t="inlineStr"/>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>end if</t>
-        </is>
-      </c>
-      <c r="D194" s="5" t="inlineStr"/>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>gps_dump</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>select_one</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>gps_dump</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Can we take a GPS point of the dumpsite?</t>
+        </is>
+      </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
@@ -8952,8 +8960,16 @@
     <row r="195">
       <c r="A195" t="inlineStr"/>
       <c r="B195" t="inlineStr"/>
-      <c r="C195" t="inlineStr"/>
-      <c r="D195" t="inlineStr"/>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D195" s="5" t="inlineStr">
+        <is>
+          <t>data('gps_dump') == 'Yes'</t>
+        </is>
+      </c>
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
@@ -8989,9 +9005,21 @@
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr"/>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>geopoint</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>store_gps_dump</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Take GPS coordinates of dump site</t>
+        </is>
+      </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
@@ -9020,24 +9048,16 @@
     <row r="197">
       <c r="A197" t="inlineStr"/>
       <c r="B197" t="inlineStr"/>
-      <c r="C197" t="inlineStr"/>
-      <c r="D197" t="inlineStr"/>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>end if</t>
+        </is>
+      </c>
+      <c r="D197" s="5" t="inlineStr"/>
       <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>dump_notes</t>
-        </is>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>36. Add any optional notes about dump</t>
-        </is>
-      </c>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
@@ -9066,11 +9086,7 @@
     <row r="198">
       <c r="A198" t="inlineStr"/>
       <c r="B198" t="inlineStr"/>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>end if</t>
-        </is>
-      </c>
+      <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
@@ -9104,11 +9120,7 @@
     <row r="199">
       <c r="A199" t="inlineStr"/>
       <c r="B199" t="inlineStr"/>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>end screen</t>
-        </is>
-      </c>
+      <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
@@ -9147,20 +9159,20 @@
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>text</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>log</t>
-        </is>
-      </c>
-      <c r="H200" t="inlineStr"/>
-      <c r="I200" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'dump_notes',data('dump_notes')]]))</t>
-        </is>
-      </c>
+          <t>dump_notes</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Add any optional notes about dump</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
@@ -9188,25 +9200,17 @@
     <row r="201">
       <c r="A201" t="inlineStr"/>
       <c r="B201" t="inlineStr"/>
-      <c r="C201" t="inlineStr"/>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>end if</t>
+        </is>
+      </c>
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr"/>
-      <c r="I201" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'store_gps_dump',data('store_gps_dump')]]))</t>
-        </is>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
@@ -9234,25 +9238,17 @@
     <row r="202">
       <c r="A202" t="inlineStr"/>
       <c r="B202" t="inlineStr"/>
-      <c r="C202" t="inlineStr"/>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>end screen</t>
+        </is>
+      </c>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr"/>
       <c r="H202" t="inlineStr"/>
-      <c r="I202" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'gps_dump',data('gps_dump')]]))</t>
-        </is>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
@@ -9296,7 +9292,7 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'dump1',data('dump1')]]))</t>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'dump_notes',data('dump_notes')]]))</t>
         </is>
       </c>
       <c r="J203" t="inlineStr"/>
@@ -9342,7 +9338,7 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'picture_dump',data('picture_dump')]]))</t>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'store_gps_dump',data('store_gps_dump')]]))</t>
         </is>
       </c>
       <c r="J204" t="inlineStr"/>
@@ -9388,7 +9384,7 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'far_dump',data('far_dump')]]))</t>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'gps_dump',data('gps_dump')]]))</t>
         </is>
       </c>
       <c r="J205" t="inlineStr"/>
@@ -9434,7 +9430,7 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'see_dump',data('see_dump')]]))</t>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'dump1',data('dump1')]]))</t>
         </is>
       </c>
       <c r="J206" t="inlineStr"/>
@@ -9464,17 +9460,25 @@
     <row r="207">
       <c r="A207" t="inlineStr"/>
       <c r="B207" t="inlineStr"/>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>begin screen</t>
-        </is>
-      </c>
+      <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
       <c r="H207" t="inlineStr"/>
-      <c r="I207" t="inlineStr"/>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'picture_dump',data('picture_dump')]]))</t>
+        </is>
+      </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
@@ -9507,20 +9511,20 @@
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>assign</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>additional_notes</t>
-        </is>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>27. Any general additional notes?</t>
-        </is>
-      </c>
-      <c r="I208" t="inlineStr"/>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'far_dump',data('far_dump')]]))</t>
+        </is>
+      </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
@@ -9548,17 +9552,25 @@
     <row r="209">
       <c r="A209" t="inlineStr"/>
       <c r="B209" t="inlineStr"/>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>end screen</t>
-        </is>
-      </c>
+      <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
       <c r="H209" t="inlineStr"/>
-      <c r="I209" t="inlineStr"/>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'see_dump',data('see_dump')]]))</t>
+        </is>
+      </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
@@ -9586,25 +9598,17 @@
     <row r="210">
       <c r="A210" t="inlineStr"/>
       <c r="B210" t="inlineStr"/>
-      <c r="C210" t="inlineStr"/>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>begin screen</t>
+        </is>
+      </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
-      <c r="I210" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'additional_notes',data('additional_notes')]]))</t>
-        </is>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
@@ -9635,9 +9639,21 @@
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>additional_notes</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Any general additional notes?</t>
+        </is>
+      </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
@@ -9666,9 +9682,9 @@
     <row r="212">
       <c r="A212" t="inlineStr"/>
       <c r="B212" t="inlineStr"/>
-      <c r="C212" s="13" t="inlineStr">
-        <is>
-          <t>end if</t>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>end screen</t>
         </is>
       </c>
       <c r="D212" t="inlineStr"/>
@@ -9707,10 +9723,22 @@
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
       <c r="H213" t="inlineStr"/>
-      <c r="I213" t="inlineStr"/>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'additional_notes',data('additional_notes')]]))</t>
+        </is>
+      </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
@@ -9772,14 +9800,12 @@
     <row r="215">
       <c r="A215" t="inlineStr"/>
       <c r="B215" t="inlineStr"/>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="D215" t="n">
-        <v>0</v>
-      </c>
+      <c r="C215" s="13" t="inlineStr">
+        <is>
+          <t>end if</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
@@ -9815,16 +9841,8 @@
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>extra_question1</t>
-        </is>
-      </c>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -9857,22 +9875,10 @@
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
-      <c r="I217" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question1',data('extra_question1')]]))</t>
-        </is>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
@@ -9900,19 +9906,17 @@
     <row r="218">
       <c r="A218" t="inlineStr"/>
       <c r="B218" t="inlineStr"/>
-      <c r="C218" t="inlineStr"/>
-      <c r="D218" t="inlineStr"/>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0</v>
+      </c>
       <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>extra_question2</t>
-        </is>
-      </c>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -9947,20 +9951,16 @@
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>log</t>
+          <t>extra_question1</t>
         </is>
       </c>
       <c r="H219" t="inlineStr"/>
-      <c r="I219" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question2',data('extra_question2')]]))</t>
-        </is>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
@@ -9993,16 +9993,20 @@
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>assign</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>extra_question3</t>
+          <t>log</t>
         </is>
       </c>
       <c r="H220" t="inlineStr"/>
-      <c r="I220" t="inlineStr"/>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question1',data('extra_question1')]]))</t>
+        </is>
+      </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
@@ -10035,20 +10039,16 @@
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>log</t>
+          <t>extra_question2</t>
         </is>
       </c>
       <c r="H221" t="inlineStr"/>
-      <c r="I221" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question3',data('extra_question3')]]))</t>
-        </is>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
@@ -10081,16 +10081,20 @@
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>assign</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>extra_question4</t>
+          <t>log</t>
         </is>
       </c>
       <c r="H222" t="inlineStr"/>
-      <c r="I222" t="inlineStr"/>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question2',data('extra_question2')]]))</t>
+        </is>
+      </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
@@ -10123,20 +10127,16 @@
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>log</t>
+          <t>extra_question3</t>
         </is>
       </c>
       <c r="H223" t="inlineStr"/>
-      <c r="I223" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question4',data('extra_question4')]]))</t>
-        </is>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
@@ -10169,16 +10169,20 @@
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>assign</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>extra_question5</t>
+          <t>log</t>
         </is>
       </c>
       <c r="H224" t="inlineStr"/>
-      <c r="I224" t="inlineStr"/>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question3',data('extra_question3')]]))</t>
+        </is>
+      </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
@@ -10211,20 +10215,16 @@
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>log</t>
+          <t>extra_question4</t>
         </is>
       </c>
       <c r="H225" t="inlineStr"/>
-      <c r="I225" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question5',data('extra_question5')]]))</t>
-        </is>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
@@ -10257,16 +10257,20 @@
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>assign</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>extra_question6</t>
+          <t>log</t>
         </is>
       </c>
       <c r="H226" t="inlineStr"/>
-      <c r="I226" t="inlineStr"/>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question4',data('extra_question4')]]))</t>
+        </is>
+      </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
@@ -10299,20 +10303,16 @@
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>log</t>
+          <t>extra_question5</t>
         </is>
       </c>
       <c r="H227" t="inlineStr"/>
-      <c r="I227" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question6',data('extra_question6')]]))</t>
-        </is>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
@@ -10345,16 +10345,20 @@
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>assign</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>extra_question7</t>
+          <t>log</t>
         </is>
       </c>
       <c r="H228" t="inlineStr"/>
-      <c r="I228" t="inlineStr"/>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question5',data('extra_question5')]]))</t>
+        </is>
+      </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
@@ -10387,20 +10391,16 @@
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>log</t>
+          <t>extra_question6</t>
         </is>
       </c>
       <c r="H229" t="inlineStr"/>
-      <c r="I229" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question7',data('extra_question7')]]))</t>
-        </is>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
@@ -10433,16 +10433,20 @@
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>assign</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>extra_question8</t>
+          <t>log</t>
         </is>
       </c>
       <c r="H230" t="inlineStr"/>
-      <c r="I230" t="inlineStr"/>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question6',data('extra_question6')]]))</t>
+        </is>
+      </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
@@ -10475,20 +10479,16 @@
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>log</t>
+          <t>extra_question7</t>
         </is>
       </c>
       <c r="H231" t="inlineStr"/>
-      <c r="I231" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question8',data('extra_question8')]]))</t>
-        </is>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
@@ -10521,16 +10521,20 @@
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>assign</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>extra_question9</t>
+          <t>log</t>
         </is>
       </c>
       <c r="H232" t="inlineStr"/>
-      <c r="I232" t="inlineStr"/>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question7',data('extra_question7')]]))</t>
+        </is>
+      </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
@@ -10563,20 +10567,16 @@
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>log</t>
+          <t>extra_question8</t>
         </is>
       </c>
       <c r="H233" t="inlineStr"/>
-      <c r="I233" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question9',data('extra_question9')]]))</t>
-        </is>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
@@ -10609,16 +10609,20 @@
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>assign</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>extra_question10</t>
+          <t>log</t>
         </is>
       </c>
       <c r="H234" t="inlineStr"/>
-      <c r="I234" t="inlineStr"/>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question8',data('extra_question8')]]))</t>
+        </is>
+      </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
@@ -10651,20 +10655,16 @@
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>log</t>
+          <t>extra_question9</t>
         </is>
       </c>
       <c r="H235" t="inlineStr"/>
-      <c r="I235" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question10',data('extra_question10')]]))</t>
-        </is>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
@@ -10697,16 +10697,20 @@
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>assign</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>extra_question11</t>
+          <t>log</t>
         </is>
       </c>
       <c r="H236" t="inlineStr"/>
-      <c r="I236" t="inlineStr"/>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question9',data('extra_question9')]]))</t>
+        </is>
+      </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
@@ -10739,20 +10743,16 @@
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>log</t>
+          <t>extra_question10</t>
         </is>
       </c>
       <c r="H237" t="inlineStr"/>
-      <c r="I237" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question11',data('extra_question11')]]))</t>
-        </is>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
@@ -10785,16 +10785,20 @@
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>assign</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>extra_question12</t>
+          <t>log</t>
         </is>
       </c>
       <c r="H238" t="inlineStr"/>
-      <c r="I238" t="inlineStr"/>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question10',data('extra_question10')]]))</t>
+        </is>
+      </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
@@ -10827,20 +10831,16 @@
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>log</t>
+          <t>extra_question11</t>
         </is>
       </c>
       <c r="H239" t="inlineStr"/>
-      <c r="I239" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question12',data('extra_question12')]]))</t>
-        </is>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
@@ -10873,16 +10873,20 @@
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>assign</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>extra_question13</t>
+          <t>log</t>
         </is>
       </c>
       <c r="H240" t="inlineStr"/>
-      <c r="I240" t="inlineStr"/>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question11',data('extra_question11')]]))</t>
+        </is>
+      </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
@@ -10915,20 +10919,16 @@
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>log</t>
+          <t>extra_question12</t>
         </is>
       </c>
       <c r="H241" t="inlineStr"/>
-      <c r="I241" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question13',data('extra_question13')]]))</t>
-        </is>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
@@ -10961,16 +10961,20 @@
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>assign</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>extra_question14</t>
+          <t>log</t>
         </is>
       </c>
       <c r="H242" t="inlineStr"/>
-      <c r="I242" t="inlineStr"/>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question12',data('extra_question12')]]))</t>
+        </is>
+      </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
@@ -11003,20 +11007,16 @@
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>log</t>
+          <t>extra_question13</t>
         </is>
       </c>
       <c r="H243" t="inlineStr"/>
-      <c r="I243" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question14',data('extra_question14')]]))</t>
-        </is>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
@@ -11049,16 +11049,20 @@
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>assign</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>extra_question15</t>
+          <t>log</t>
         </is>
       </c>
       <c r="H244" t="inlineStr"/>
-      <c r="I244" t="inlineStr"/>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question13',data('extra_question13')]]))</t>
+        </is>
+      </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
@@ -11091,20 +11095,16 @@
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>log</t>
+          <t>extra_question14</t>
         </is>
       </c>
       <c r="H245" t="inlineStr"/>
-      <c r="I245" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question15',data('extra_question15')]]))</t>
-        </is>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
@@ -11137,16 +11137,20 @@
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>assign</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>extra_question16</t>
+          <t>log</t>
         </is>
       </c>
       <c r="H246" t="inlineStr"/>
-      <c r="I246" t="inlineStr"/>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question14',data('extra_question14')]]))</t>
+        </is>
+      </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
@@ -11179,20 +11183,16 @@
       <c r="E247" t="inlineStr"/>
       <c r="F247" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>log</t>
+          <t>extra_question15</t>
         </is>
       </c>
       <c r="H247" t="inlineStr"/>
-      <c r="I247" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question16',data('extra_question16')]]))</t>
-        </is>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
@@ -11225,16 +11225,20 @@
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>assign</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>extra_question17</t>
+          <t>log</t>
         </is>
       </c>
       <c r="H248" t="inlineStr"/>
-      <c r="I248" t="inlineStr"/>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question15',data('extra_question15')]]))</t>
+        </is>
+      </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
@@ -11267,20 +11271,16 @@
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>log</t>
+          <t>extra_question16</t>
         </is>
       </c>
       <c r="H249" t="inlineStr"/>
-      <c r="I249" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question17',data('extra_question17')]]))</t>
-        </is>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
@@ -11313,16 +11313,20 @@
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>assign</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>extra_question18</t>
+          <t>log</t>
         </is>
       </c>
       <c r="H250" t="inlineStr"/>
-      <c r="I250" t="inlineStr"/>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question16',data('extra_question16')]]))</t>
+        </is>
+      </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
@@ -11355,20 +11359,16 @@
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>log</t>
+          <t>extra_question17</t>
         </is>
       </c>
       <c r="H251" t="inlineStr"/>
-      <c r="I251" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question18',data('extra_question18')]]))</t>
-        </is>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
@@ -11401,16 +11401,20 @@
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>assign</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>extra_question19</t>
+          <t>log</t>
         </is>
       </c>
       <c r="H252" t="inlineStr"/>
-      <c r="I252" t="inlineStr"/>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question17',data('extra_question17')]]))</t>
+        </is>
+      </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
@@ -11443,20 +11447,16 @@
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>log</t>
+          <t>extra_question18</t>
         </is>
       </c>
       <c r="H253" t="inlineStr"/>
-      <c r="I253" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question19',data('extra_question19')]]))</t>
-        </is>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
@@ -11489,16 +11489,20 @@
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>assign</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>extra_question20</t>
+          <t>log</t>
         </is>
       </c>
       <c r="H254" t="inlineStr"/>
-      <c r="I254" t="inlineStr"/>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question18',data('extra_question18')]]))</t>
+        </is>
+      </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
@@ -11531,20 +11535,16 @@
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>log</t>
+          <t>extra_question19</t>
         </is>
       </c>
       <c r="H255" t="inlineStr"/>
-      <c r="I255" t="inlineStr">
-        <is>
-          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question20',data('extra_question20')]]))</t>
-        </is>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
@@ -11572,17 +11572,25 @@
     <row r="256">
       <c r="A256" t="inlineStr"/>
       <c r="B256" t="inlineStr"/>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>end if</t>
-        </is>
-      </c>
+      <c r="C256" t="inlineStr"/>
       <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
       <c r="H256" t="inlineStr"/>
-      <c r="I256" t="inlineStr"/>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question19',data('extra_question19')]]))</t>
+        </is>
+      </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
@@ -11615,20 +11623,16 @@
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>log_0</t>
+          <t>extra_question20</t>
         </is>
       </c>
       <c r="H257" t="inlineStr"/>
-      <c r="I257" t="inlineStr">
-        <is>
-          <t>data('log').substring(0,60000) == '' ? ' ' : data('log').substring(0,60000)</t>
-        </is>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
@@ -11666,13 +11670,13 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>log_1</t>
+          <t>log</t>
         </is>
       </c>
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr">
         <is>
-          <t>data('log').substring(60000,120000) == '' ? ' ' : data('log').substring(60000,120000)</t>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question20',data('extra_question20')]]))</t>
         </is>
       </c>
       <c r="J258" t="inlineStr"/>
@@ -11702,25 +11706,17 @@
     <row r="259">
       <c r="A259" t="inlineStr"/>
       <c r="B259" t="inlineStr"/>
-      <c r="C259" t="inlineStr"/>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>end if</t>
+        </is>
+      </c>
       <c r="D259" t="inlineStr"/>
       <c r="E259" t="inlineStr"/>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G259" t="inlineStr">
-        <is>
-          <t>log_2</t>
-        </is>
-      </c>
+      <c r="F259" t="inlineStr"/>
+      <c r="G259" t="inlineStr"/>
       <c r="H259" t="inlineStr"/>
-      <c r="I259" t="inlineStr">
-        <is>
-          <t>data('log').substring(120000,180000) == '' ? ' ' : data('log').substring(120000,180000)</t>
-        </is>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr"/>
@@ -11758,13 +11754,13 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>log_3</t>
+          <t>log_0</t>
         </is>
       </c>
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr">
         <is>
-          <t>data('log').substring(180000,240000) == '' ? ' ' : data('log').substring(180000,240000)</t>
+          <t>data('log').substring(0,60000) == '' ? ' ' : data('log').substring(0,60000)</t>
         </is>
       </c>
       <c r="J260" t="inlineStr"/>
@@ -11804,13 +11800,13 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>log_4</t>
+          <t>log_1</t>
         </is>
       </c>
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>data('log').substring(240000,300000) == '' ? ' ' : data('log').substring(240000,300000)</t>
+          <t>data('log').substring(60000,120000) == '' ? ' ' : data('log').substring(60000,120000)</t>
         </is>
       </c>
       <c r="J261" t="inlineStr"/>
@@ -11850,13 +11846,13 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>log_5</t>
+          <t>log_2</t>
         </is>
       </c>
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr">
         <is>
-          <t>data('log').substring(300000,360000) == '' ? ' ' : data('log').substring(300000,360000)</t>
+          <t>data('log').substring(120000,180000) == '' ? ' ' : data('log').substring(120000,180000)</t>
         </is>
       </c>
       <c r="J262" t="inlineStr"/>
@@ -11896,13 +11892,13 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>log_6</t>
+          <t>log_3</t>
         </is>
       </c>
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>data('log').substring(360000,420000) == '' ? ' ' : data('log').substring(360000,420000)</t>
+          <t>data('log').substring(180000,240000) == '' ? ' ' : data('log').substring(180000,240000)</t>
         </is>
       </c>
       <c r="J263" t="inlineStr"/>
@@ -11942,13 +11938,13 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>log_7</t>
+          <t>log_4</t>
         </is>
       </c>
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>data('log').substring(420000,480000) == '' ? ' ' : data('log').substring(420000,480000)</t>
+          <t>data('log').substring(240000,300000) == '' ? ' ' : data('log').substring(240000,300000)</t>
         </is>
       </c>
       <c r="J264" t="inlineStr"/>
@@ -11988,13 +11984,13 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>log_8</t>
+          <t>log_5</t>
         </is>
       </c>
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>data('log').substring(480000,540000) == '' ? ' ' : data('log').substring(480000,540000)</t>
+          <t>data('log').substring(300000,360000) == '' ? ' ' : data('log').substring(300000,360000)</t>
         </is>
       </c>
       <c r="J265" t="inlineStr"/>
@@ -12034,13 +12030,13 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>log_9</t>
+          <t>log_6</t>
         </is>
       </c>
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>data('log').substring(540000,600000) == '' ? ' ' : data('log').substring(540000,600000)</t>
+          <t>data('log').substring(360000,420000) == '' ? ' ' : data('log').substring(360000,420000)</t>
         </is>
       </c>
       <c r="J266" t="inlineStr"/>
@@ -12080,13 +12076,13 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>log_10</t>
+          <t>log_7</t>
         </is>
       </c>
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>data('log').substring(600000,660000) == '' ? ' ' : data('log').substring(600000,660000)</t>
+          <t>data('log').substring(420000,480000) == '' ? ' ' : data('log').substring(420000,480000)</t>
         </is>
       </c>
       <c r="J267" t="inlineStr"/>
@@ -12126,13 +12122,13 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>log_11</t>
+          <t>log_8</t>
         </is>
       </c>
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>data('log').substring(660000,720000) == '' ? ' ' : data('log').substring(660000,720000)</t>
+          <t>data('log').substring(480000,540000) == '' ? ' ' : data('log').substring(480000,540000)</t>
         </is>
       </c>
       <c r="J268" t="inlineStr"/>
@@ -12172,13 +12168,13 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>log_12</t>
+          <t>log_9</t>
         </is>
       </c>
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>data('log').substring(720000,780000) == '' ? ' ' : data('log').substring(720000,780000)</t>
+          <t>data('log').substring(540000,600000) == '' ? ' ' : data('log').substring(540000,600000)</t>
         </is>
       </c>
       <c r="J269" t="inlineStr"/>
@@ -12218,13 +12214,13 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>log_13</t>
+          <t>log_10</t>
         </is>
       </c>
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>data('log').substring(780000,840000) == '' ? ' ' : data('log').substring(780000,840000)</t>
+          <t>data('log').substring(600000,660000) == '' ? ' ' : data('log').substring(600000,660000)</t>
         </is>
       </c>
       <c r="J270" t="inlineStr"/>
@@ -12264,13 +12260,13 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>log_14</t>
+          <t>log_11</t>
         </is>
       </c>
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>data('log').substring(840000,900000) == '' ? ' ' : data('log').substring(840000,900000)</t>
+          <t>data('log').substring(660000,720000) == '' ? ' ' : data('log').substring(660000,720000)</t>
         </is>
       </c>
       <c r="J271" t="inlineStr"/>
@@ -12310,13 +12306,13 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>log_15</t>
+          <t>log_12</t>
         </is>
       </c>
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>data('log').substring(900000,960000) == '' ? ' ' : data('log').substring(900000,960000)</t>
+          <t>data('log').substring(720000,780000) == '' ? ' ' : data('log').substring(720000,780000)</t>
         </is>
       </c>
       <c r="J272" t="inlineStr"/>
@@ -12356,13 +12352,13 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>log_16</t>
+          <t>log_13</t>
         </is>
       </c>
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>data('log').substring(960000,1020000) == '' ? ' ' : data('log').substring(960000,1020000)</t>
+          <t>data('log').substring(780000,840000) == '' ? ' ' : data('log').substring(780000,840000)</t>
         </is>
       </c>
       <c r="J273" t="inlineStr"/>
@@ -12402,13 +12398,13 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>log_17</t>
+          <t>log_14</t>
         </is>
       </c>
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>data('log').substring(1020000,1080000) == '' ? ' ' : data('log').substring(1020000,1080000)</t>
+          <t>data('log').substring(840000,900000) == '' ? ' ' : data('log').substring(840000,900000)</t>
         </is>
       </c>
       <c r="J274" t="inlineStr"/>
@@ -12448,13 +12444,13 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>log_18</t>
+          <t>log_15</t>
         </is>
       </c>
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>data('log').substring(1080000,1140000) == '' ? ' ' : data('log').substring(1080000,1140000)</t>
+          <t>data('log').substring(900000,960000) == '' ? ' ' : data('log').substring(900000,960000)</t>
         </is>
       </c>
       <c r="J275" t="inlineStr"/>
@@ -12494,13 +12490,13 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>log_19</t>
+          <t>log_16</t>
         </is>
       </c>
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr">
         <is>
-          <t>data('log').substring(1140000,1200000) == '' ? ' ' : data('log').substring(1140000,1200000)</t>
+          <t>data('log').substring(960000,1020000) == '' ? ' ' : data('log').substring(960000,1020000)</t>
         </is>
       </c>
       <c r="J276" t="inlineStr"/>
@@ -12527,6 +12523,144 @@
       <c r="AE276" t="inlineStr"/>
       <c r="AF276" t="inlineStr"/>
     </row>
+    <row r="277">
+      <c r="A277" t="inlineStr"/>
+      <c r="B277" t="inlineStr"/>
+      <c r="C277" t="inlineStr"/>
+      <c r="D277" t="inlineStr"/>
+      <c r="E277" t="inlineStr"/>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>log_17</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>data('log').substring(1020000,1080000) == '' ? ' ' : data('log').substring(1020000,1080000)</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="inlineStr"/>
+      <c r="O277" t="inlineStr"/>
+      <c r="P277" t="inlineStr"/>
+      <c r="Q277" t="inlineStr"/>
+      <c r="R277" t="inlineStr"/>
+      <c r="S277" t="inlineStr"/>
+      <c r="T277" t="inlineStr"/>
+      <c r="U277" t="inlineStr"/>
+      <c r="V277" t="inlineStr"/>
+      <c r="W277" t="inlineStr"/>
+      <c r="X277" t="inlineStr"/>
+      <c r="Y277" t="inlineStr"/>
+      <c r="Z277" t="inlineStr"/>
+      <c r="AA277" t="inlineStr"/>
+      <c r="AB277" t="inlineStr"/>
+      <c r="AC277" t="inlineStr"/>
+      <c r="AD277" t="inlineStr"/>
+      <c r="AE277" t="inlineStr"/>
+      <c r="AF277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr"/>
+      <c r="B278" t="inlineStr"/>
+      <c r="C278" t="inlineStr"/>
+      <c r="D278" t="inlineStr"/>
+      <c r="E278" t="inlineStr"/>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>log_18</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>data('log').substring(1080000,1140000) == '' ? ' ' : data('log').substring(1080000,1140000)</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="inlineStr"/>
+      <c r="O278" t="inlineStr"/>
+      <c r="P278" t="inlineStr"/>
+      <c r="Q278" t="inlineStr"/>
+      <c r="R278" t="inlineStr"/>
+      <c r="S278" t="inlineStr"/>
+      <c r="T278" t="inlineStr"/>
+      <c r="U278" t="inlineStr"/>
+      <c r="V278" t="inlineStr"/>
+      <c r="W278" t="inlineStr"/>
+      <c r="X278" t="inlineStr"/>
+      <c r="Y278" t="inlineStr"/>
+      <c r="Z278" t="inlineStr"/>
+      <c r="AA278" t="inlineStr"/>
+      <c r="AB278" t="inlineStr"/>
+      <c r="AC278" t="inlineStr"/>
+      <c r="AD278" t="inlineStr"/>
+      <c r="AE278" t="inlineStr"/>
+      <c r="AF278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr"/>
+      <c r="B279" t="inlineStr"/>
+      <c r="C279" t="inlineStr"/>
+      <c r="D279" t="inlineStr"/>
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>log_19</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>data('log').substring(1140000,1200000) == '' ? ' ' : data('log').substring(1140000,1200000)</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="inlineStr"/>
+      <c r="O279" t="inlineStr"/>
+      <c r="P279" t="inlineStr"/>
+      <c r="Q279" t="inlineStr"/>
+      <c r="R279" t="inlineStr"/>
+      <c r="S279" t="inlineStr"/>
+      <c r="T279" t="inlineStr"/>
+      <c r="U279" t="inlineStr"/>
+      <c r="V279" t="inlineStr"/>
+      <c r="W279" t="inlineStr"/>
+      <c r="X279" t="inlineStr"/>
+      <c r="Y279" t="inlineStr"/>
+      <c r="Z279" t="inlineStr"/>
+      <c r="AA279" t="inlineStr"/>
+      <c r="AB279" t="inlineStr"/>
+      <c r="AC279" t="inlineStr"/>
+      <c r="AD279" t="inlineStr"/>
+      <c r="AE279" t="inlineStr"/>
+      <c r="AF279" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -12540,18 +12674,18 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="71" zoomScaleNormal="71">
+    <sheetView workbookViewId="0" zoomScale="71" zoomScaleNormal="71">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="11" width="30.85546875"/>
+    <col customWidth="1" max="1" min="1" style="11" width="30.83203125"/>
     <col customWidth="1" max="2" min="2" style="11" width="20"/>
-    <col customWidth="1" max="1025" min="3" style="11" width="11.42578125"/>
+    <col customWidth="1" max="1025" min="3" style="11" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row customHeight="1" ht="14" r="1" s="11">
       <c r="A1" s="6" t="inlineStr">
         <is>
           <t>setting_name</t>
@@ -12599,7 +12733,7 @@
         </is>
       </c>
       <c r="B4" s="5" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -12640,9 +12774,9 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="11" width="11.42578125"/>
+    <col customWidth="1" max="1025" min="1" style="11" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13079,14 +13213,14 @@
   </sheetPr>
   <dimension ref="A1:D175"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0" zoomScale="111" zoomScaleNormal="71">
-      <selection activeCell="A28" sqref="A28:C44"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0" zoomScale="111" zoomScaleNormal="71">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="11" width="14.7109375"/>
-    <col customWidth="1" max="1025" min="2" style="11" width="11.42578125"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="11" width="14.6640625"/>
+    <col customWidth="1" max="1025" min="2" style="11" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13106,7 +13240,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="5" s="11">
+    <row customHeight="1" ht="16" r="5" s="11">
       <c r="A5" s="5" t="inlineStr">
         <is>
           <t>interviewer_name</t>
@@ -13123,7 +13257,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="6" s="11">
+    <row customHeight="1" ht="16" r="6" s="11">
       <c r="A6" s="5" t="inlineStr">
         <is>
           <t>interviewer_name</t>
@@ -13140,7 +13274,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="7" s="11">
+    <row customHeight="1" ht="16" r="7" s="11">
       <c r="A7" s="5" t="inlineStr">
         <is>
           <t>interviewer_name</t>
@@ -13157,7 +13291,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="8" s="11">
+    <row customHeight="1" ht="16" r="8" s="11">
       <c r="A8" s="5" t="inlineStr">
         <is>
           <t>interviewer_name</t>
@@ -13174,7 +13308,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="9" s="11">
+    <row customHeight="1" ht="16" r="9" s="11">
       <c r="A9" s="5" t="inlineStr">
         <is>
           <t>interviewer_name</t>
@@ -13191,7 +13325,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="10" s="11">
+    <row customHeight="1" ht="16" r="10" s="11">
       <c r="A10" s="5" t="inlineStr">
         <is>
           <t>interviewer_name</t>
@@ -13208,7 +13342,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="11" s="11">
+    <row customHeight="1" ht="16" r="11" s="11">
       <c r="A11" s="5" t="inlineStr">
         <is>
           <t>interviewer_name</t>
@@ -13225,7 +13359,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="12" s="11">
+    <row customHeight="1" ht="16" r="12" s="11">
       <c r="A12" s="5" t="inlineStr">
         <is>
           <t>interviewer_name</t>
@@ -13242,7 +13376,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="13" s="11">
+    <row customHeight="1" ht="16" r="13" s="11">
       <c r="A13" s="5" t="inlineStr">
         <is>
           <t>interviewer_name</t>
@@ -13259,7 +13393,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="14" s="11">
+    <row customHeight="1" ht="16" r="14" s="11">
       <c r="A14" s="5" t="inlineStr">
         <is>
           <t>interviewer_name</t>
@@ -13276,7 +13410,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="15" s="11">
+    <row customHeight="1" ht="16" r="15" s="11">
       <c r="A15" s="5" t="inlineStr">
         <is>
           <t>interviewer_name</t>
@@ -13293,7 +13427,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="16" s="11">
+    <row customHeight="1" ht="16" r="16" s="11">
       <c r="A16" s="5" t="inlineStr">
         <is>
           <t>interviewer_name</t>
@@ -13310,7 +13444,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="17" s="11">
+    <row customHeight="1" ht="16" r="17" s="11">
       <c r="A17" s="5" t="inlineStr">
         <is>
           <t>interviewer_name</t>
@@ -13327,7 +13461,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="18" s="11">
+    <row customHeight="1" ht="16" r="18" s="11">
       <c r="A18" s="5" t="inlineStr">
         <is>
           <t>interviewer_name</t>
@@ -13344,7 +13478,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="19" s="11">
+    <row customHeight="1" ht="16" r="19" s="11">
       <c r="A19" s="5" t="inlineStr">
         <is>
           <t>interviewer_name</t>
@@ -13361,7 +13495,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="20" s="11">
+    <row customHeight="1" ht="16" r="20" s="11">
       <c r="A20" s="5" t="inlineStr">
         <is>
           <t>interviewer_name</t>
@@ -13378,7 +13512,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="21" s="11">
+    <row customHeight="1" ht="16" r="21" s="11">
       <c r="A21" s="5" t="inlineStr">
         <is>
           <t>interviewer_name</t>
@@ -13395,7 +13529,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="22" s="11">
+    <row customHeight="1" ht="16" r="22" s="11">
       <c r="A22" s="5" t="inlineStr">
         <is>
           <t>interviewer_name</t>
@@ -13412,7 +13546,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="23" s="11">
+    <row customHeight="1" ht="16" r="23" s="11">
       <c r="A23" s="5" t="inlineStr">
         <is>
           <t>interviewer_name</t>
@@ -13429,7 +13563,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="24" s="11">
+    <row customHeight="1" ht="16" r="24" s="11">
       <c r="A24" s="5" t="inlineStr">
         <is>
           <t>interviewer_name</t>
@@ -13624,12 +13758,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>household</t>
+          <t>community</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Household</t>
+          <t>Community</t>
         </is>
       </c>
     </row>
@@ -13641,12 +13775,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>community</t>
+          <t>dumpsite</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Community</t>
+          <t>Dumpsite</t>
         </is>
       </c>
     </row>
@@ -13658,12 +13792,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>nearest hospital</t>
+          <t>garri_rice_or_grain_drying_spot</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Nearest hospital</t>
+          <t>Garri, rice or grain drying spot</t>
         </is>
       </c>
     </row>
@@ -13675,12 +13809,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>dumpsite</t>
+          <t>household</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Dumpsite</t>
+          <t>Household</t>
         </is>
       </c>
     </row>
@@ -13692,12 +13826,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>traps</t>
+          <t>nearest hospital</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Traps</t>
+          <t>Nearest hospital</t>
         </is>
       </c>
     </row>
@@ -13726,12 +13860,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>garri_rice_or_grain_drying_spot</t>
+          <t>traps</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Garri, rice or grain drying spot</t>
+          <t>Traps</t>
         </is>
       </c>
     </row>
@@ -14518,12 +14652,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>rice</t>
+          <t>cassava</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Cassava</t>
         </is>
       </c>
     </row>
@@ -14552,12 +14686,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>cassava</t>
+          <t>rice</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Cassava</t>
+          <t>Rice</t>
         </is>
       </c>
     </row>
@@ -14569,12 +14703,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>yams</t>
+          <t>vegetables</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Yams</t>
+          <t>Vegetables</t>
         </is>
       </c>
     </row>
@@ -14586,12 +14720,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>vegetables</t>
+          <t>yams</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Vegetables</t>
+          <t>Yams</t>
         </is>
       </c>
     </row>
